--- a/Data/Demand distribution by time of the day.xlsx
+++ b/Data/Demand distribution by time of the day.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/a_rojasa55_uniandes_edu_co/Documents/Documentos/MOPTA-23/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CEA4F1D-BCC8-4D5C-8069-9684EB910C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{2CEA4F1D-BCC8-4D5C-8069-9684EB910C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD3E9EDC-A5FE-4A08-A451-442E9D957C9A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{39F7E8F1-42CB-42F6-8721-14EFCF583E1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{39F7E8F1-42CB-42F6-8721-14EFCF583E1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0.00000000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -115,7 +115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -174,7 +174,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2678,7 +2678,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="218277616"/>
@@ -2737,7 +2737,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="218303536"/>
@@ -2779,7 +2779,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2816,7 +2816,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5341,7 +5341,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1291907536"/>
@@ -5400,7 +5400,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1291899856"/>
@@ -5442,7 +5442,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5479,7 +5479,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6999,9 +6999,9 @@
       <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7047,11 +7047,11 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <f>SUM(C2:H2)</f>
+        <f t="shared" ref="I2:I33" si="0">SUM(C2:H2)</f>
         <v>4060.46</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7074,11 +7074,11 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <f>SUM(C3:H3)</f>
+        <f t="shared" si="0"/>
         <v>4023.9199999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7101,11 +7101,11 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <f>SUM(C4:H4)</f>
+        <f t="shared" si="0"/>
         <v>3995.5299999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7131,11 +7131,11 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <f>SUM(C5:H5)</f>
+        <f t="shared" si="0"/>
         <v>3970.98</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7158,11 +7158,11 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <f>SUM(C6:H6)</f>
+        <f t="shared" si="0"/>
         <v>3956.21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7185,11 +7185,11 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <f>SUM(C7:H7)</f>
+        <f t="shared" si="0"/>
         <v>3941.22</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7212,11 +7212,11 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <f>SUM(C8:H8)</f>
+        <f t="shared" si="0"/>
         <v>3938.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7242,11 +7242,11 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <f>SUM(C9:H9)</f>
+        <f t="shared" si="0"/>
         <v>3934.1600000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7269,11 +7269,11 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <f>SUM(C10:H10)</f>
+        <f t="shared" si="0"/>
         <v>3916.57</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7296,11 +7296,11 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <f>SUM(C11:H11)</f>
+        <f t="shared" si="0"/>
         <v>3928.48</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7323,11 +7323,11 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <f>SUM(C12:H12)</f>
+        <f t="shared" si="0"/>
         <v>3920.9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7353,11 +7353,11 @@
         <v>4.28</v>
       </c>
       <c r="I13">
-        <f>SUM(C13:H13)</f>
+        <f t="shared" si="0"/>
         <v>3926.36</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7380,11 +7380,11 @@
         <v>32.06</v>
       </c>
       <c r="I14">
-        <f>SUM(C14:H14)</f>
+        <f t="shared" si="0"/>
         <v>3947.5100000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7407,11 +7407,11 @@
         <v>32.049999999999997</v>
       </c>
       <c r="I15">
-        <f>SUM(C15:H15)</f>
+        <f t="shared" si="0"/>
         <v>3943.5899999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7434,11 +7434,11 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <f>SUM(C16:H16)</f>
+        <f t="shared" si="0"/>
         <v>3898.7400000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7464,11 +7464,11 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <f>SUM(C17:H17)</f>
+        <f t="shared" si="0"/>
         <v>3906.7400000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7491,11 +7491,11 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <f>SUM(C18:H18)</f>
+        <f t="shared" si="0"/>
         <v>3900.0599999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7518,11 +7518,11 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <f>SUM(C19:H19)</f>
+        <f t="shared" si="0"/>
         <v>3904.5499999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7545,11 +7545,11 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <f>SUM(C20:H20)</f>
+        <f t="shared" si="0"/>
         <v>3874.63</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7575,11 +7575,11 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <f>SUM(C21:H21)</f>
+        <f t="shared" si="0"/>
         <v>3926.39</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7602,11 +7602,11 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <f>SUM(C22:H22)</f>
+        <f t="shared" si="0"/>
         <v>3985.98</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7629,11 +7629,11 @@
         <v>13.67</v>
       </c>
       <c r="I23">
-        <f>SUM(C23:H23)</f>
+        <f t="shared" si="0"/>
         <v>4053.01</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7656,11 +7656,11 @@
         <v>20.52</v>
       </c>
       <c r="I24">
-        <f>SUM(C24:H24)</f>
+        <f t="shared" si="0"/>
         <v>4029.66</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7686,11 +7686,11 @@
         <v>100.05</v>
       </c>
       <c r="I25">
-        <f>SUM(C25:H25)</f>
+        <f t="shared" si="0"/>
         <v>4157.43</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7713,11 +7713,11 @@
         <v>168.66</v>
       </c>
       <c r="I26">
-        <f>SUM(C26:H26)</f>
+        <f t="shared" si="0"/>
         <v>4372.26</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7740,11 +7740,11 @@
         <v>87.34</v>
       </c>
       <c r="I27">
-        <f>SUM(C27:H27)</f>
+        <f t="shared" si="0"/>
         <v>4356.4500000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7767,11 +7767,11 @@
         <v>156.5</v>
       </c>
       <c r="I28">
-        <f>SUM(C28:H28)</f>
+        <f t="shared" si="0"/>
         <v>4452.37</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7797,11 +7797,11 @@
         <v>246.45</v>
       </c>
       <c r="I29">
-        <f>SUM(C29:H29)</f>
+        <f t="shared" si="0"/>
         <v>4750.1099999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7824,11 +7824,11 @@
         <v>262.81</v>
       </c>
       <c r="I30">
-        <f>SUM(C30:H30)</f>
+        <f t="shared" si="0"/>
         <v>5043.8200000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7851,11 +7851,11 @@
         <v>250.6</v>
       </c>
       <c r="I31">
-        <f>SUM(C31:H31)</f>
+        <f t="shared" si="0"/>
         <v>5387.130000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7878,11 +7878,11 @@
         <v>275.16000000000003</v>
       </c>
       <c r="I32">
-        <f>SUM(C32:H32)</f>
+        <f t="shared" si="0"/>
         <v>5792.76</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7908,11 +7908,11 @@
         <v>281.55</v>
       </c>
       <c r="I33">
-        <f>SUM(C33:H33)</f>
+        <f t="shared" si="0"/>
         <v>6341.2800000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -7935,11 +7935,11 @@
         <v>603.95000000000005</v>
       </c>
       <c r="I34">
-        <f>SUM(C34:H34)</f>
+        <f t="shared" ref="I34:I65" si="1">SUM(C34:H34)</f>
         <v>7490.4699999999993</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7962,11 +7962,11 @@
         <v>756.86</v>
       </c>
       <c r="I35">
-        <f>SUM(C35:H35)</f>
+        <f t="shared" si="1"/>
         <v>7874.6699999999992</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7989,11 +7989,11 @@
         <v>674.02</v>
       </c>
       <c r="I36">
-        <f>SUM(C36:H36)</f>
+        <f t="shared" si="1"/>
         <v>8223.41</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -8019,11 +8019,11 @@
         <v>627.61</v>
       </c>
       <c r="I37">
-        <f>SUM(C37:H37)</f>
+        <f t="shared" si="1"/>
         <v>8505.7200000000012</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -8046,11 +8046,11 @@
         <v>1114.1500000000001</v>
       </c>
       <c r="I38">
-        <f>SUM(C38:H38)</f>
+        <f t="shared" si="1"/>
         <v>9501.5499999999993</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -8073,11 +8073,11 @@
         <v>1328.38</v>
       </c>
       <c r="I39">
-        <f>SUM(C39:H39)</f>
+        <f t="shared" si="1"/>
         <v>9856.4200000000019</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -8100,11 +8100,11 @@
         <v>1665.34</v>
       </c>
       <c r="I40">
-        <f>SUM(C40:H40)</f>
+        <f t="shared" si="1"/>
         <v>10232.740000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -8130,11 +8130,11 @@
         <v>1370.38</v>
       </c>
       <c r="I41">
-        <f>SUM(C41:H41)</f>
+        <f t="shared" si="1"/>
         <v>9843.5299999999988</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -8157,11 +8157,11 @@
         <v>1565.12</v>
       </c>
       <c r="I42">
-        <f>SUM(C42:H42)</f>
+        <f t="shared" si="1"/>
         <v>10356.09</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -8184,11 +8184,11 @@
         <v>1250.32</v>
       </c>
       <c r="I43">
-        <f>SUM(C43:H43)</f>
+        <f t="shared" si="1"/>
         <v>10177.049999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -8211,11 +8211,11 @@
         <v>1223.27</v>
       </c>
       <c r="I44">
-        <f>SUM(C44:H44)</f>
+        <f t="shared" si="1"/>
         <v>9913.32</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -8241,11 +8241,11 @@
         <v>1079.8900000000001</v>
       </c>
       <c r="I45">
-        <f>SUM(C45:H45)</f>
+        <f t="shared" si="1"/>
         <v>9596.4699999999993</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -8268,11 +8268,11 @@
         <v>1479.77</v>
       </c>
       <c r="I46">
-        <f>SUM(C46:H46)</f>
+        <f t="shared" si="1"/>
         <v>9960.66</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -8295,11 +8295,11 @@
         <v>1359.08</v>
       </c>
       <c r="I47">
-        <f>SUM(C47:H47)</f>
+        <f t="shared" si="1"/>
         <v>9653.7800000000007</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -8322,11 +8322,11 @@
         <v>1158.56</v>
       </c>
       <c r="I48">
-        <f>SUM(C48:H48)</f>
+        <f t="shared" si="1"/>
         <v>9194.51</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -8352,11 +8352,11 @@
         <v>1061.17</v>
       </c>
       <c r="I49">
-        <f>SUM(C49:H49)</f>
+        <f t="shared" si="1"/>
         <v>9070.9500000000007</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -8379,11 +8379,11 @@
         <v>1311.53</v>
       </c>
       <c r="I50">
-        <f>SUM(C50:H50)</f>
+        <f t="shared" si="1"/>
         <v>9112.7100000000009</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -8406,11 +8406,11 @@
         <v>1492.65</v>
       </c>
       <c r="I51">
-        <f>SUM(C51:H51)</f>
+        <f t="shared" si="1"/>
         <v>9091.1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -8433,11 +8433,11 @@
         <v>1273.1500000000001</v>
       </c>
       <c r="I52">
-        <f>SUM(C52:H52)</f>
+        <f t="shared" si="1"/>
         <v>8608.17</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -8463,11 +8463,11 @@
         <v>1193.68</v>
       </c>
       <c r="I53">
-        <f>SUM(C53:H53)</f>
+        <f t="shared" si="1"/>
         <v>8555.4</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -8490,11 +8490,11 @@
         <v>939.34</v>
       </c>
       <c r="I54">
-        <f>SUM(C54:H54)</f>
+        <f t="shared" si="1"/>
         <v>8302.5499999999993</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -8517,11 +8517,11 @@
         <v>839.48</v>
       </c>
       <c r="I55">
-        <f>SUM(C55:H55)</f>
+        <f t="shared" si="1"/>
         <v>8400.98</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -8544,11 +8544,11 @@
         <v>1163.3499999999999</v>
       </c>
       <c r="I56">
-        <f>SUM(C56:H56)</f>
+        <f t="shared" si="1"/>
         <v>8496.7100000000009</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -8574,11 +8574,11 @@
         <v>1376.43</v>
       </c>
       <c r="I57">
-        <f>SUM(C57:H57)</f>
+        <f t="shared" si="1"/>
         <v>8559.2199999999993</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -8601,11 +8601,11 @@
         <v>1174.23</v>
       </c>
       <c r="I58">
-        <f>SUM(C58:H58)</f>
+        <f t="shared" si="1"/>
         <v>8366.14</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -8628,11 +8628,11 @@
         <v>961.48</v>
       </c>
       <c r="I59">
-        <f>SUM(C59:H59)</f>
+        <f t="shared" si="1"/>
         <v>8160.33</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -8655,11 +8655,11 @@
         <v>910.11</v>
       </c>
       <c r="I60">
-        <f>SUM(C60:H60)</f>
+        <f t="shared" si="1"/>
         <v>7909.5999999999995</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -8685,11 +8685,11 @@
         <v>732.1</v>
       </c>
       <c r="I61">
-        <f>SUM(C61:H61)</f>
+        <f t="shared" si="1"/>
         <v>7565.630000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -8712,11 +8712,11 @@
         <v>790.84</v>
       </c>
       <c r="I62">
-        <f>SUM(C62:H62)</f>
+        <f t="shared" si="1"/>
         <v>7389.3099999999995</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -8739,11 +8739,11 @@
         <v>833.55</v>
       </c>
       <c r="I63">
-        <f>SUM(C63:H63)</f>
+        <f t="shared" si="1"/>
         <v>7451.4000000000005</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -8766,11 +8766,11 @@
         <v>1005.71</v>
       </c>
       <c r="I64">
-        <f>SUM(C64:H64)</f>
+        <f t="shared" si="1"/>
         <v>7511.8</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -8796,11 +8796,11 @@
         <v>949.4</v>
       </c>
       <c r="I65">
-        <f>SUM(C65:H65)</f>
+        <f t="shared" si="1"/>
         <v>7376.3499999999985</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -8823,11 +8823,11 @@
         <v>1039.31</v>
       </c>
       <c r="I66">
-        <f>SUM(C66:H66)</f>
+        <f t="shared" ref="I66:I97" si="2">SUM(C66:H66)</f>
         <v>7366.58</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -8850,11 +8850,11 @@
         <v>1030.58</v>
       </c>
       <c r="I67">
-        <f>SUM(C67:H67)</f>
+        <f t="shared" si="2"/>
         <v>7291.3099999999995</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -8877,11 +8877,11 @@
         <v>1160.9000000000001</v>
       </c>
       <c r="I68">
-        <f>SUM(C68:H68)</f>
+        <f t="shared" si="2"/>
         <v>7066.66</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -8907,11 +8907,11 @@
         <v>1002.79</v>
       </c>
       <c r="I69">
-        <f>SUM(C69:H69)</f>
+        <f t="shared" si="2"/>
         <v>6843.94</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -8934,11 +8934,11 @@
         <v>881.92</v>
       </c>
       <c r="I70">
-        <f>SUM(C70:H70)</f>
+        <f t="shared" si="2"/>
         <v>6404.9500000000007</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -8961,11 +8961,11 @@
         <v>836.68</v>
       </c>
       <c r="I71">
-        <f>SUM(C71:H71)</f>
+        <f t="shared" si="2"/>
         <v>6207.9500000000007</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -8988,11 +8988,11 @@
         <v>969.09</v>
       </c>
       <c r="I72">
-        <f>SUM(C72:H72)</f>
+        <f t="shared" si="2"/>
         <v>6292.85</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -9018,11 +9018,11 @@
         <v>918.56</v>
       </c>
       <c r="I73">
-        <f>SUM(C73:H73)</f>
+        <f t="shared" si="2"/>
         <v>6322.6399999999994</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -9045,11 +9045,11 @@
         <v>893.78</v>
       </c>
       <c r="I74">
-        <f>SUM(C74:H74)</f>
+        <f t="shared" si="2"/>
         <v>6504.65</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -9072,11 +9072,11 @@
         <v>872.54</v>
       </c>
       <c r="I75">
-        <f>SUM(C75:H75)</f>
+        <f t="shared" si="2"/>
         <v>6588.76</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -9099,11 +9099,11 @@
         <v>1148.3900000000001</v>
       </c>
       <c r="I76">
-        <f>SUM(C76:H76)</f>
+        <f t="shared" si="2"/>
         <v>6697.8700000000008</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -9129,11 +9129,11 @@
         <v>978.84</v>
       </c>
       <c r="I77">
-        <f>SUM(C77:H77)</f>
+        <f t="shared" si="2"/>
         <v>6550.0599999999995</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -9156,11 +9156,11 @@
         <v>1161.1099999999999</v>
       </c>
       <c r="I78">
-        <f>SUM(C78:H78)</f>
+        <f t="shared" si="2"/>
         <v>6855.9</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -9183,11 +9183,11 @@
         <v>1162.8499999999999</v>
       </c>
       <c r="I79">
-        <f>SUM(C79:H79)</f>
+        <f t="shared" si="2"/>
         <v>6767.59</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -9210,11 +9210,11 @@
         <v>662.05</v>
       </c>
       <c r="I80">
-        <f>SUM(C80:H80)</f>
+        <f t="shared" si="2"/>
         <v>5993.5</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -9240,11 +9240,11 @@
         <v>741.9</v>
       </c>
       <c r="I81">
-        <f>SUM(C81:H81)</f>
+        <f t="shared" si="2"/>
         <v>5978.74</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -9267,11 +9267,11 @@
         <v>687.47</v>
       </c>
       <c r="I82">
-        <f>SUM(C82:H82)</f>
+        <f t="shared" si="2"/>
         <v>5725.55</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -9294,11 +9294,11 @@
         <v>395.77</v>
       </c>
       <c r="I83">
-        <f>SUM(C83:H83)</f>
+        <f t="shared" si="2"/>
         <v>5274.52</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -9321,11 +9321,11 @@
         <v>345.51</v>
       </c>
       <c r="I84">
-        <f>SUM(C84:H84)</f>
+        <f t="shared" si="2"/>
         <v>5108.83</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -9351,11 +9351,11 @@
         <v>177.62</v>
       </c>
       <c r="I85">
-        <f>SUM(C85:H85)</f>
+        <f t="shared" si="2"/>
         <v>4783.6499999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -9378,11 +9378,11 @@
         <v>93.29</v>
       </c>
       <c r="I86">
-        <f>SUM(C86:H86)</f>
+        <f t="shared" si="2"/>
         <v>4502.28</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -9405,11 +9405,11 @@
         <v>76.11</v>
       </c>
       <c r="I87">
-        <f>SUM(C87:H87)</f>
+        <f t="shared" si="2"/>
         <v>4474.1799999999994</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -9432,11 +9432,11 @@
         <v>132.59</v>
       </c>
       <c r="I88">
-        <f>SUM(C88:H88)</f>
+        <f t="shared" si="2"/>
         <v>4445.05</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -9462,11 +9462,11 @@
         <v>127.62</v>
       </c>
       <c r="I89">
-        <f>SUM(C89:H89)</f>
+        <f t="shared" si="2"/>
         <v>4383.2</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -9489,11 +9489,11 @@
         <v>123.57</v>
       </c>
       <c r="I90">
-        <f>SUM(C90:H90)</f>
+        <f t="shared" si="2"/>
         <v>4346.5499999999993</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -9516,11 +9516,11 @@
         <v>61.51</v>
       </c>
       <c r="I91">
-        <f>SUM(C91:H91)</f>
+        <f t="shared" si="2"/>
         <v>4228.63</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -9543,11 +9543,11 @@
         <v>61.51</v>
       </c>
       <c r="I92">
-        <f>SUM(C92:H92)</f>
+        <f t="shared" si="2"/>
         <v>4196.33</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -9573,11 +9573,11 @@
         <v>61.51</v>
       </c>
       <c r="I93">
-        <f>SUM(C93:H93)</f>
+        <f t="shared" si="2"/>
         <v>4215.9800000000005</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -9600,11 +9600,11 @@
         <v>89.97</v>
       </c>
       <c r="I94">
-        <f>SUM(C94:H94)</f>
+        <f t="shared" si="2"/>
         <v>4259.1099999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -9627,11 +9627,11 @@
         <v>102.94</v>
       </c>
       <c r="I95">
-        <f>SUM(C95:H95)</f>
+        <f t="shared" si="2"/>
         <v>4231.9299999999994</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -9654,11 +9654,11 @@
         <v>72.19</v>
       </c>
       <c r="I96">
-        <f>SUM(C96:H96)</f>
+        <f t="shared" si="2"/>
         <v>4174.2599999999993</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -9684,7 +9684,7 @@
         <v>33.49</v>
       </c>
       <c r="I97">
-        <f>SUM(C97:H97)</f>
+        <f t="shared" si="2"/>
         <v>4122.91</v>
       </c>
     </row>
@@ -9705,9 +9705,9 @@
       <selection activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>7</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C3" s="1">
         <v>233.8</v>
       </c>
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>234.73</v>
       </c>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>235.2</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>230.79</v>
       </c>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>224.95</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>215.51</v>
       </c>
@@ -10134,7 +10134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>211.46</v>
       </c>
@@ -10196,7 +10196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>206.96</v>
       </c>
@@ -10258,7 +10258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <v>199.41</v>
       </c>
@@ -10320,7 +10320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <v>186.91</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <v>181.27</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>176.06</v>
       </c>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>171.3</v>
       </c>
@@ -10568,7 +10568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <v>162.56</v>
       </c>
@@ -10630,7 +10630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
         <v>158.63999999999999</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
         <v>153.22</v>
       </c>
@@ -10754,7 +10754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
         <v>145.94999999999999</v>
       </c>
@@ -10816,7 +10816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <v>139.22</v>
       </c>
@@ -10878,7 +10878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
         <v>131.91999999999999</v>
       </c>
@@ -10940,7 +10940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
         <v>127.09</v>
       </c>
@@ -11002,7 +11002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
         <v>111.48</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
         <v>101.92</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
         <v>95.01</v>
       </c>
@@ -11188,7 +11188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
         <v>88.25</v>
       </c>
@@ -11250,7 +11250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C27" s="1">
         <v>82.95</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
         <v>76.510000000000005</v>
       </c>
@@ -11374,7 +11374,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C29" s="1">
         <v>68.77</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C30" s="1">
         <v>65.069999999999993</v>
       </c>
@@ -11498,7 +11498,7 @@
         <v>19.05</v>
       </c>
     </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C31" s="1">
         <v>55.12</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>228.32999999999998</v>
       </c>
     </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C32" s="1">
         <v>50.21</v>
       </c>
@@ -11622,7 +11622,7 @@
         <v>383.62</v>
       </c>
     </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C33" s="1">
         <v>43.48</v>
       </c>
@@ -11684,7 +11684,7 @@
         <v>308.08999999999997</v>
       </c>
     </row>
-    <row r="34" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C34" s="1">
         <v>40.51</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>428.62</v>
       </c>
     </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C35" s="1">
         <v>39.97</v>
       </c>
@@ -11808,7 +11808,7 @@
         <v>603.41</v>
       </c>
     </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
         <v>41.99</v>
       </c>
@@ -11870,7 +11870,7 @@
         <v>783.45</v>
       </c>
     </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C37" s="1">
         <v>42.54</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>826.96</v>
       </c>
     </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C38" s="1">
         <v>44.8</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>762.65</v>
       </c>
     </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C39" s="1">
         <v>43.32</v>
       </c>
@@ -12056,7 +12056,7 @@
         <v>705.19</v>
       </c>
     </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C40" s="1">
         <v>37.78</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>876.96</v>
       </c>
     </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C41" s="1">
         <v>36.159999999999997</v>
       </c>
@@ -12180,7 +12180,7 @@
         <v>852.54</v>
       </c>
     </row>
-    <row r="42" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C42" s="1">
         <v>36.72</v>
       </c>
@@ -12242,7 +12242,7 @@
         <v>570.76</v>
       </c>
     </row>
-    <row r="43" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C43" s="1">
         <v>34.799999999999997</v>
       </c>
@@ -12304,7 +12304,7 @@
         <v>308.5</v>
       </c>
     </row>
-    <row r="44" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C44" s="1">
         <v>31.03</v>
       </c>
@@ -12366,7 +12366,7 @@
         <v>509.46000000000004</v>
       </c>
     </row>
-    <row r="45" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C45" s="1">
         <v>28.84</v>
       </c>
@@ -12428,7 +12428,7 @@
         <v>551.28</v>
       </c>
     </row>
-    <row r="46" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C46" s="1">
         <v>28.86</v>
       </c>
@@ -12490,7 +12490,7 @@
         <v>574.91000000000008</v>
       </c>
     </row>
-    <row r="47" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C47" s="1">
         <v>28.81</v>
       </c>
@@ -12552,7 +12552,7 @@
         <v>899.66</v>
       </c>
     </row>
-    <row r="48" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C48" s="1">
         <v>30.96</v>
       </c>
@@ -12614,7 +12614,7 @@
         <v>823.41</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C49" s="1">
         <v>34.06</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>770.53</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C50" s="1">
         <v>34.85</v>
       </c>
@@ -12738,7 +12738,7 @@
         <v>394.74</v>
       </c>
     </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C51" s="1">
         <v>43.37</v>
       </c>
@@ -12800,7 +12800,7 @@
         <v>508.19</v>
       </c>
     </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C52" s="1">
         <v>45.16</v>
       </c>
@@ -12862,7 +12862,7 @@
         <v>666.16</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C53" s="1">
         <v>53.4</v>
       </c>
@@ -12924,7 +12924,7 @@
         <v>626.96</v>
       </c>
     </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C54" s="1">
         <v>62.07</v>
       </c>
@@ -12986,7 +12986,7 @@
         <v>682.8</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C55" s="1">
         <v>70.19</v>
       </c>
@@ -13048,7 +13048,7 @@
         <v>673.74</v>
       </c>
     </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C56" s="1">
         <v>72.760000000000005</v>
       </c>
@@ -13110,7 +13110,7 @@
         <v>657.89</v>
       </c>
     </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C57" s="1">
         <v>68.739999999999995</v>
       </c>
@@ -13172,7 +13172,7 @@
         <v>779.03</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C58" s="1">
         <v>69.2</v>
       </c>
@@ -13234,7 +13234,7 @@
         <v>536.39</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C59" s="1">
         <v>70.5</v>
       </c>
@@ -13296,7 +13296,7 @@
         <v>571.5</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C60" s="1">
         <v>76.650000000000006</v>
       </c>
@@ -13358,7 +13358,7 @@
         <v>558.71</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C61" s="1">
         <v>88.15</v>
       </c>
@@ -13420,7 +13420,7 @@
         <v>635.16000000000008</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C62" s="1">
         <v>96.6</v>
       </c>
@@ -13482,7 +13482,7 @@
         <v>367.82000000000005</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C63" s="1">
         <v>104.01</v>
       </c>
@@ -13544,7 +13544,7 @@
         <v>552.97</v>
       </c>
     </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C64" s="1">
         <v>105.22</v>
       </c>
@@ -13606,7 +13606,7 @@
         <v>744.01</v>
       </c>
     </row>
-    <row r="65" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C65" s="1">
         <v>113.01</v>
       </c>
@@ -13668,7 +13668,7 @@
         <v>869.13</v>
       </c>
     </row>
-    <row r="66" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C66" s="1">
         <v>111.68</v>
       </c>
@@ -13730,7 +13730,7 @@
         <v>690.31999999999994</v>
       </c>
     </row>
-    <row r="67" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C67" s="1">
         <v>131.06</v>
       </c>
@@ -13792,7 +13792,7 @@
         <v>789.37</v>
       </c>
     </row>
-    <row r="68" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C68" s="1">
         <v>140.22</v>
       </c>
@@ -13854,7 +13854,7 @@
         <v>639.72</v>
       </c>
     </row>
-    <row r="69" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C69" s="1">
         <v>138.07</v>
       </c>
@@ -13916,7 +13916,7 @@
         <v>426.07</v>
       </c>
     </row>
-    <row r="70" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C70" s="1">
         <v>143.28</v>
       </c>
@@ -13978,7 +13978,7 @@
         <v>385.99</v>
       </c>
     </row>
-    <row r="71" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C71" s="1">
         <v>148.38</v>
       </c>
@@ -14040,7 +14040,7 @@
         <v>575.28</v>
       </c>
     </row>
-    <row r="72" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C72" s="1">
         <v>153.35</v>
       </c>
@@ -14102,7 +14102,7 @@
         <v>404.9</v>
       </c>
     </row>
-    <row r="73" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C73" s="1">
         <v>167.89</v>
       </c>
@@ -14164,7 +14164,7 @@
         <v>526.33000000000004</v>
       </c>
     </row>
-    <row r="74" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C74" s="1">
         <v>183.58</v>
       </c>
@@ -14226,7 +14226,7 @@
         <v>639.70000000000005</v>
       </c>
     </row>
-    <row r="75" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C75" s="1">
         <v>209.39</v>
       </c>
@@ -14288,7 +14288,7 @@
         <v>957.56</v>
       </c>
     </row>
-    <row r="76" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C76" s="1">
         <v>218.92</v>
       </c>
@@ -14350,7 +14350,7 @@
         <v>1104.6500000000001</v>
       </c>
     </row>
-    <row r="77" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C77" s="1">
         <v>225.45</v>
       </c>
@@ -14412,7 +14412,7 @@
         <v>918.42000000000007</v>
       </c>
     </row>
-    <row r="78" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C78" s="1">
         <v>231.66</v>
       </c>
@@ -14474,7 +14474,7 @@
         <v>801.32</v>
       </c>
     </row>
-    <row r="79" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C79" s="1">
         <v>232.51</v>
       </c>
@@ -14536,7 +14536,7 @@
         <v>704.69</v>
       </c>
     </row>
-    <row r="80" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C80" s="1">
         <v>239.62</v>
       </c>
@@ -14598,7 +14598,7 @@
         <v>409.15</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C81" s="1">
         <v>244.79</v>
       </c>
@@ -14660,7 +14660,7 @@
         <v>405.42999999999995</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C82" s="1">
         <v>241.77</v>
       </c>
@@ -14722,7 +14722,7 @@
         <v>338.5</v>
       </c>
     </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C83" s="1">
         <v>248.98</v>
       </c>
@@ -14784,7 +14784,7 @@
         <v>264.44</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C84" s="1">
         <v>255.84</v>
       </c>
@@ -14846,7 +14846,7 @@
         <v>222.99</v>
       </c>
     </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C85" s="1">
         <v>256.73</v>
       </c>
@@ -14908,7 +14908,7 @@
         <v>207.19</v>
       </c>
     </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C86" s="1">
         <v>257.29000000000002</v>
       </c>
@@ -14970,7 +14970,7 @@
         <v>173.63</v>
       </c>
     </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C87" s="1">
         <v>262.55</v>
       </c>
@@ -15032,7 +15032,7 @@
         <v>85.990000000000009</v>
       </c>
     </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C88" s="1">
         <v>262.56</v>
       </c>
@@ -15094,7 +15094,7 @@
         <v>109.3</v>
       </c>
     </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C89" s="1">
         <v>269.87</v>
       </c>
@@ -15156,7 +15156,7 @@
         <v>23.13</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C90" s="1">
         <v>269.56</v>
       </c>
@@ -15218,7 +15218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C91" s="1">
         <v>263.97000000000003</v>
       </c>
@@ -15280,7 +15280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C92" s="1">
         <v>258.26</v>
       </c>
@@ -15342,7 +15342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C93" s="1">
         <v>261.5</v>
       </c>
@@ -15404,7 +15404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C94" s="1">
         <v>260.54000000000002</v>
       </c>
@@ -15466,7 +15466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C95" s="1">
         <v>256.16000000000003</v>
       </c>
@@ -15528,7 +15528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C96" s="1">
         <v>252.79</v>
       </c>
@@ -15590,7 +15590,7 @@
         <v>78.88</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C97" s="1">
         <v>249.29</v>
       </c>
@@ -15652,7 +15652,7 @@
         <v>19.940000000000001</v>
       </c>
     </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C98" s="1">
         <v>247.92</v>
       </c>
@@ -15724,15 +15724,15 @@
   <dimension ref="A1:M97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="20.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -15755,7 +15755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>488.6</v>
       </c>
@@ -15783,7 +15783,7 @@
         <v>5.6724391528500994E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>489.53</v>
       </c>
@@ -15812,7 +15812,7 @@
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>490</v>
       </c>
@@ -15841,7 +15841,7 @@
       </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -15873,7 +15873,7 @@
       </c>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>477.5</v>
       </c>
@@ -15902,7 +15902,7 @@
       </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>461.01</v>
       </c>
@@ -15931,7 +15931,7 @@
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>450.17</v>
       </c>
@@ -15960,7 +15960,7 @@
       </c>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -15992,7 +15992,7 @@
       </c>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>421.53</v>
       </c>
@@ -16021,7 +16021,7 @@
       </c>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>400.7</v>
       </c>
@@ -16050,7 +16050,7 @@
       </c>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>389.45000000000005</v>
       </c>
@@ -16079,7 +16079,7 @@
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -16111,7 +16111,7 @@
       </c>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>372.33000000000004</v>
       </c>
@@ -16140,7 +16140,7 @@
       </c>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>349.46000000000004</v>
       </c>
@@ -16169,7 +16169,7 @@
       </c>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>333.23</v>
       </c>
@@ -16198,7 +16198,7 @@
       </c>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -16230,7 +16230,7 @@
       </c>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>305.75</v>
       </c>
@@ -16259,7 +16259,7 @@
       </c>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>290.89</v>
       </c>
@@ -16288,7 +16288,7 @@
       </c>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>275.79999999999995</v>
       </c>
@@ -16317,7 +16317,7 @@
       </c>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -16349,7 +16349,7 @@
       </c>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>244.60000000000002</v>
       </c>
@@ -16378,7 +16378,7 @@
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>228.05</v>
       </c>
@@ -16407,7 +16407,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>216.79000000000002</v>
       </c>
@@ -16436,7 +16436,7 @@
       </c>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -16468,7 +16468,7 @@
       </c>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>193.11</v>
       </c>
@@ -16497,7 +16497,7 @@
       </c>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>180.98000000000002</v>
       </c>
@@ -16525,7 +16525,7 @@
         <v>3.5914341543345227E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>167.58999999999997</v>
       </c>
@@ -16553,7 +16553,7 @@
         <v>4.4500633735269956E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>7</v>
       </c>
@@ -16584,7 +16584,7 @@
         <v>4.9564538943317818E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>135.53</v>
       </c>
@@ -16612,7 +16612,7 @@
         <v>7.5998275783319665E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>126.21000000000001</v>
       </c>
@@ -16640,7 +16640,7 @@
         <v>9.3744023048552162E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>104.66999999999999</v>
       </c>
@@ -16668,7 +16668,7 @@
         <v>1.079593545891569E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
@@ -16699,7 +16699,7 @@
         <v>1.2682734139490275E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>92.509999999999991</v>
       </c>
@@ -16727,7 +16727,7 @@
         <v>1.5604749731661649E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>91.17</v>
       </c>
@@ -16755,7 +16755,7 @@
         <v>1.7086186212546824E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>90.13</v>
       </c>
@@ -16783,7 +16783,7 @@
         <v>1.8286126121882712E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9</v>
       </c>
@@ -16814,7 +16814,7 @@
         <v>1.8295180757285111E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>87.28</v>
       </c>
@@ -16842,7 +16842,7 @@
         <v>1.8958042514501703E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>78.069999999999993</v>
       </c>
@@ -16870,7 +16870,7 @@
         <v>1.9079142687494301E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>73.400000000000006</v>
       </c>
@@ -16898,7 +16898,7 @@
         <v>1.8594429766716915E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10</v>
       </c>
@@ -16929,7 +16929,7 @@
         <v>1.6629306259705861E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>68.88</v>
       </c>
@@ -16957,7 +16957,7 @@
         <v>1.5912696543573589E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>67</v>
       </c>
@@ -16985,7 +16985,7 @@
         <v>1.6756160363569937E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>65.64</v>
       </c>
@@ -17013,7 +17013,7 @@
         <v>1.6318727804992241E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>11</v>
       </c>
@@ -17044,7 +17044,7 @@
         <v>1.6291474690554496E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>67.73</v>
       </c>
@@ -17072,7 +17072,7 @@
         <v>1.7065757527747333E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>70.03</v>
       </c>
@@ -17100,7 +17100,7 @@
         <v>1.6358826904631411E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>75.31</v>
       </c>
@@ -17128,7 +17128,7 @@
         <v>1.5680353707065869E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>12</v>
       </c>
@@ -17159,7 +17159,7 @@
         <v>1.3001475147300634E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>95.949999999999989</v>
       </c>
@@ -17187,7 +17187,7 @@
         <v>1.3347781498355719E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>115.14</v>
       </c>
@@ -17215,7 +17215,7 @@
         <v>1.4161048332305659E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>132.54</v>
       </c>
@@ -17243,7 +17243,7 @@
         <v>1.3539356173495026E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>13</v>
       </c>
@@ -17274,7 +17274,7 @@
         <v>1.3589401990842246E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>161.26999999999998</v>
       </c>
@@ -17302,7 +17302,7 @@
         <v>1.3558937380104144E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>170.49</v>
       </c>
@@ -17330,7 +17330,7 @@
         <v>1.3399656084429529E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>174.83999999999997</v>
       </c>
@@ -17358,7 +17358,7 @@
         <v>1.3866438150863254E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>14</v>
       </c>
@@ -17389,7 +17389,7 @@
         <v>1.2273000736503156E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>184</v>
       </c>
@@ -17417,7 +17417,7 @@
         <v>1.241426196960355E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>202.81</v>
       </c>
@@ -17445,7 +17445,7 @@
         <v>1.289125837843702E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>225.09</v>
       </c>
@@ -17473,7 +17473,7 @@
         <v>1.2852006756988223E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>15</v>
       </c>
@@ -17504,7 +17504,7 @@
         <v>1.146794105976524E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>245.74</v>
       </c>
@@ -17532,7 +17532,7 @@
         <v>1.2385358502900345E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>263.06</v>
       </c>
@@ -17560,7 +17560,7 @@
         <v>1.3549748932355901E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>277.76</v>
       </c>
@@ -17588,7 +17588,7 @@
         <v>1.3874957536882256E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>16</v>
       </c>
@@ -17619,7 +17619,7 @@
         <v>1.2962758775235231E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>303.76</v>
       </c>
@@ -17647,7 +17647,7 @@
         <v>1.3977591606147808E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>309.93</v>
       </c>
@@ -17675,7 +17675,7 @@
         <v>1.3260803473554404E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>320.97000000000003</v>
       </c>
@@ -17703,7 +17703,7 @@
         <v>1.2136199914931037E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>17</v>
       </c>
@@ -17734,7 +17734,7 @@
         <v>1.1761079305403309E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>352.4</v>
       </c>
@@ -17762,7 +17762,7 @@
         <v>1.2901249700260348E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>372.43</v>
       </c>
@@ -17790,7 +17790,7 @@
         <v>1.2924265423746235E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>401.90999999999997</v>
       </c>
@@ -17818,7 +17818,7 @@
         <v>1.4137854192358643E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>18</v>
       </c>
@@ -17849,7 +17849,7 @@
         <v>1.5378205430140684E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>460.86</v>
       </c>
@@ -17877,7 +17877,7 @@
         <v>1.7525447539851108E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>471.86</v>
       </c>
@@ -17905,7 +17905,7 @@
         <v>1.8354459626495848E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>480.92999999999995</v>
       </c>
@@ -17933,7 +17933,7 @@
         <v>1.7741599082511196E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>19</v>
       </c>
@@ -17964,7 +17964,7 @@
         <v>1.7018967810815754E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>499.34</v>
       </c>
@@ -17992,7 +17992,7 @@
         <v>1.6722305840070343E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>514.96</v>
       </c>
@@ -18020,7 +18020,7 @@
         <v>1.5140688516260169E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>524.45000000000005</v>
       </c>
@@ -18048,7 +18048,7 @@
         <v>1.4935241961267933E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>20</v>
       </c>
@@ -18079,7 +18079,7 @@
         <v>1.4262745715150276E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>543.46</v>
       </c>
@@ -18107,7 +18107,7 @@
         <v>1.3096838745775104E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>549.79999999999995</v>
       </c>
@@ -18135,7 +18135,7 @@
         <v>1.2435359716132277E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>551.09</v>
       </c>
@@ -18163,7 +18163,7 @@
         <v>1.1498004233465794E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>21</v>
       </c>
@@ -18194,7 +18194,7 @@
         <v>1.1091972972047141E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>568.16000000000008</v>
       </c>
@@ -18222,7 +18222,7 @@
         <v>1.0149354203777296E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>565.67000000000007</v>
       </c>
@@ -18250,7 +18250,7 @@
         <v>1.0197169815360379E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>582.52</v>
       </c>
@@ -18278,7 +18278,7 @@
         <v>9.5526849536402714E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>22</v>
       </c>
@@ -18309,7 +18309,7 @@
         <v>9.1110150041107188E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>575.29</v>
       </c>
@@ -18337,7 +18337,7 @@
         <v>8.4628726049374298E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>575.12</v>
       </c>
@@ -18365,7 +18365,7 @@
         <v>8.1787443905864659E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>573.97</v>
       </c>
@@ -18393,7 +18393,7 @@
         <v>8.0904282423266694E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>23</v>
       </c>
@@ -18424,7 +18424,7 @@
         <v>7.6604445710011888E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>557.79</v>
       </c>
@@ -18452,7 +18452,7 @@
         <v>7.0157812928199536E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>552.66999999999996</v>
       </c>
@@ -18480,7 +18480,7 @@
         <v>6.9724260927651448E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>541.21</v>
       </c>
@@ -18508,7 +18508,7 @@
         <v>6.4402097892116593E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>24</v>
       </c>
@@ -18535,7 +18535,7 @@
         <v>1392.17</v>
       </c>
       <c r="I97" s="3">
-        <f t="shared" si="3"/>
+        <f>H97/SUM($H$2:$H$97)</f>
         <v>6.2096511173152487E-3</v>
       </c>
     </row>

--- a/Data/Demand distribution by time of the day.xlsx
+++ b/Data/Demand distribution by time of the day.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="8_{2CEA4F1D-BCC8-4D5C-8069-9684EB910C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD3E9EDC-A5FE-4A08-A451-442E9D957C9A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{39F7E8F1-42CB-42F6-8721-14EFCF583E1F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{39F7E8F1-42CB-42F6-8721-14EFCF583E1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2678,7 +2678,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="218277616"/>
@@ -2737,7 +2737,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="218303536"/>
@@ -2779,7 +2779,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2816,7 +2816,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5341,7 +5341,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1291907536"/>
@@ -5400,7 +5400,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1291899856"/>
@@ -5442,7 +5442,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5479,7 +5479,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6999,9 +6999,9 @@
       <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>4060.46</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>4023.9199999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>3995.5299999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>3970.98</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>3956.21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>3941.22</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>3938.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>3934.1600000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>3916.57</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>3928.48</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>3920.9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>3926.36</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>3947.5100000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>3943.5899999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>3898.7400000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>3906.7400000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>3900.0599999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>3904.5499999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>3874.63</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>3926.39</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>3985.98</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>4053.01</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>4029.66</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>4157.43</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>4372.26</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>4356.4500000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>4452.37</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>4750.1099999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>5043.8200000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>5387.130000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>5792.76</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>6341.2800000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>7490.4699999999993</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>7874.6699999999992</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>8223.41</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>8505.7200000000012</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>9501.5499999999993</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>9856.4200000000019</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>10232.740000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>9843.5299999999988</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>10356.09</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>10177.049999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>9913.32</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>9596.4699999999993</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>9960.66</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>9653.7800000000007</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>9194.51</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>9070.9500000000007</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>9112.7100000000009</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>9091.1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>8608.17</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>8555.4</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>8302.5499999999993</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>8400.98</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>8496.7100000000009</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>8559.2199999999993</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>8366.14</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>8160.33</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>7909.5999999999995</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>7565.630000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>7389.3099999999995</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>7451.4000000000005</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -8770,7 +8770,7 @@
         <v>7511.8</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>7376.3499999999985</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>7366.58</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>7291.3099999999995</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>7066.66</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>6843.94</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>6404.9500000000007</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>6207.9500000000007</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>6292.85</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>6322.6399999999994</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>6504.65</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>6588.76</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>6697.8700000000008</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>6550.0599999999995</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>6855.9</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>6767.59</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>5993.5</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>5978.74</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>5725.55</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>5274.52</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -9325,7 +9325,7 @@
         <v>5108.83</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>4783.6499999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -9382,7 +9382,7 @@
         <v>4502.28</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>4474.1799999999994</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -9436,7 +9436,7 @@
         <v>4445.05</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>4383.2</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -9493,7 +9493,7 @@
         <v>4346.5499999999993</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>4228.63</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>4196.33</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>4215.9800000000005</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>4259.1099999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>4231.9299999999994</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -9658,7 +9658,7 @@
         <v>4174.2599999999993</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -9705,9 +9705,9 @@
       <selection activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>7</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C3" s="1">
         <v>233.8</v>
       </c>
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C4" s="1">
         <v>234.73</v>
       </c>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C5" s="1">
         <v>235.2</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <v>230.79</v>
       </c>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
         <v>224.95</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>215.51</v>
       </c>
@@ -10134,7 +10134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>211.46</v>
       </c>
@@ -10196,7 +10196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>206.96</v>
       </c>
@@ -10258,7 +10258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>199.41</v>
       </c>
@@ -10320,7 +10320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>186.91</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
         <v>181.27</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>176.06</v>
       </c>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>171.3</v>
       </c>
@@ -10568,7 +10568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>162.56</v>
       </c>
@@ -10630,7 +10630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>158.63999999999999</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
         <v>153.22</v>
       </c>
@@ -10754,7 +10754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
         <v>145.94999999999999</v>
       </c>
@@ -10816,7 +10816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>139.22</v>
       </c>
@@ -10878,7 +10878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
         <v>131.91999999999999</v>
       </c>
@@ -10940,7 +10940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
         <v>127.09</v>
       </c>
@@ -11002,7 +11002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
         <v>111.48</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
         <v>101.92</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C25" s="1">
         <v>95.01</v>
       </c>
@@ -11188,7 +11188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
         <v>88.25</v>
       </c>
@@ -11250,7 +11250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C27" s="1">
         <v>82.95</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C28" s="1">
         <v>76.510000000000005</v>
       </c>
@@ -11374,7 +11374,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C29" s="1">
         <v>68.77</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C30" s="1">
         <v>65.069999999999993</v>
       </c>
@@ -11498,7 +11498,7 @@
         <v>19.05</v>
       </c>
     </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C31" s="1">
         <v>55.12</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>228.32999999999998</v>
       </c>
     </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C32" s="1">
         <v>50.21</v>
       </c>
@@ -11622,7 +11622,7 @@
         <v>383.62</v>
       </c>
     </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C33" s="1">
         <v>43.48</v>
       </c>
@@ -11684,7 +11684,7 @@
         <v>308.08999999999997</v>
       </c>
     </row>
-    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C34" s="1">
         <v>40.51</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>428.62</v>
       </c>
     </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C35" s="1">
         <v>39.97</v>
       </c>
@@ -11808,7 +11808,7 @@
         <v>603.41</v>
       </c>
     </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C36" s="1">
         <v>41.99</v>
       </c>
@@ -11870,7 +11870,7 @@
         <v>783.45</v>
       </c>
     </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C37" s="1">
         <v>42.54</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>826.96</v>
       </c>
     </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C38" s="1">
         <v>44.8</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>762.65</v>
       </c>
     </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C39" s="1">
         <v>43.32</v>
       </c>
@@ -12056,7 +12056,7 @@
         <v>705.19</v>
       </c>
     </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C40" s="1">
         <v>37.78</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>876.96</v>
       </c>
     </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C41" s="1">
         <v>36.159999999999997</v>
       </c>
@@ -12180,7 +12180,7 @@
         <v>852.54</v>
       </c>
     </row>
-    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C42" s="1">
         <v>36.72</v>
       </c>
@@ -12242,7 +12242,7 @@
         <v>570.76</v>
       </c>
     </row>
-    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C43" s="1">
         <v>34.799999999999997</v>
       </c>
@@ -12304,7 +12304,7 @@
         <v>308.5</v>
       </c>
     </row>
-    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C44" s="1">
         <v>31.03</v>
       </c>
@@ -12366,7 +12366,7 @@
         <v>509.46000000000004</v>
       </c>
     </row>
-    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C45" s="1">
         <v>28.84</v>
       </c>
@@ -12428,7 +12428,7 @@
         <v>551.28</v>
       </c>
     </row>
-    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C46" s="1">
         <v>28.86</v>
       </c>
@@ -12490,7 +12490,7 @@
         <v>574.91000000000008</v>
       </c>
     </row>
-    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C47" s="1">
         <v>28.81</v>
       </c>
@@ -12552,7 +12552,7 @@
         <v>899.66</v>
       </c>
     </row>
-    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C48" s="1">
         <v>30.96</v>
       </c>
@@ -12614,7 +12614,7 @@
         <v>823.41</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C49" s="1">
         <v>34.06</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>770.53</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C50" s="1">
         <v>34.85</v>
       </c>
@@ -12738,7 +12738,7 @@
         <v>394.74</v>
       </c>
     </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C51" s="1">
         <v>43.37</v>
       </c>
@@ -12800,7 +12800,7 @@
         <v>508.19</v>
       </c>
     </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C52" s="1">
         <v>45.16</v>
       </c>
@@ -12862,7 +12862,7 @@
         <v>666.16</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C53" s="1">
         <v>53.4</v>
       </c>
@@ -12924,7 +12924,7 @@
         <v>626.96</v>
       </c>
     </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C54" s="1">
         <v>62.07</v>
       </c>
@@ -12986,7 +12986,7 @@
         <v>682.8</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C55" s="1">
         <v>70.19</v>
       </c>
@@ -13048,7 +13048,7 @@
         <v>673.74</v>
       </c>
     </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C56" s="1">
         <v>72.760000000000005</v>
       </c>
@@ -13110,7 +13110,7 @@
         <v>657.89</v>
       </c>
     </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C57" s="1">
         <v>68.739999999999995</v>
       </c>
@@ -13172,7 +13172,7 @@
         <v>779.03</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C58" s="1">
         <v>69.2</v>
       </c>
@@ -13234,7 +13234,7 @@
         <v>536.39</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C59" s="1">
         <v>70.5</v>
       </c>
@@ -13296,7 +13296,7 @@
         <v>571.5</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C60" s="1">
         <v>76.650000000000006</v>
       </c>
@@ -13358,7 +13358,7 @@
         <v>558.71</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C61" s="1">
         <v>88.15</v>
       </c>
@@ -13420,7 +13420,7 @@
         <v>635.16000000000008</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C62" s="1">
         <v>96.6</v>
       </c>
@@ -13482,7 +13482,7 @@
         <v>367.82000000000005</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C63" s="1">
         <v>104.01</v>
       </c>
@@ -13544,7 +13544,7 @@
         <v>552.97</v>
       </c>
     </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C64" s="1">
         <v>105.22</v>
       </c>
@@ -13606,7 +13606,7 @@
         <v>744.01</v>
       </c>
     </row>
-    <row r="65" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C65" s="1">
         <v>113.01</v>
       </c>
@@ -13668,7 +13668,7 @@
         <v>869.13</v>
       </c>
     </row>
-    <row r="66" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C66" s="1">
         <v>111.68</v>
       </c>
@@ -13730,7 +13730,7 @@
         <v>690.31999999999994</v>
       </c>
     </row>
-    <row r="67" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C67" s="1">
         <v>131.06</v>
       </c>
@@ -13792,7 +13792,7 @@
         <v>789.37</v>
       </c>
     </row>
-    <row r="68" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C68" s="1">
         <v>140.22</v>
       </c>
@@ -13854,7 +13854,7 @@
         <v>639.72</v>
       </c>
     </row>
-    <row r="69" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C69" s="1">
         <v>138.07</v>
       </c>
@@ -13916,7 +13916,7 @@
         <v>426.07</v>
       </c>
     </row>
-    <row r="70" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C70" s="1">
         <v>143.28</v>
       </c>
@@ -13978,7 +13978,7 @@
         <v>385.99</v>
       </c>
     </row>
-    <row r="71" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C71" s="1">
         <v>148.38</v>
       </c>
@@ -14040,7 +14040,7 @@
         <v>575.28</v>
       </c>
     </row>
-    <row r="72" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C72" s="1">
         <v>153.35</v>
       </c>
@@ -14102,7 +14102,7 @@
         <v>404.9</v>
       </c>
     </row>
-    <row r="73" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C73" s="1">
         <v>167.89</v>
       </c>
@@ -14164,7 +14164,7 @@
         <v>526.33000000000004</v>
       </c>
     </row>
-    <row r="74" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C74" s="1">
         <v>183.58</v>
       </c>
@@ -14226,7 +14226,7 @@
         <v>639.70000000000005</v>
       </c>
     </row>
-    <row r="75" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C75" s="1">
         <v>209.39</v>
       </c>
@@ -14288,7 +14288,7 @@
         <v>957.56</v>
       </c>
     </row>
-    <row r="76" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C76" s="1">
         <v>218.92</v>
       </c>
@@ -14350,7 +14350,7 @@
         <v>1104.6500000000001</v>
       </c>
     </row>
-    <row r="77" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C77" s="1">
         <v>225.45</v>
       </c>
@@ -14412,7 +14412,7 @@
         <v>918.42000000000007</v>
       </c>
     </row>
-    <row r="78" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C78" s="1">
         <v>231.66</v>
       </c>
@@ -14474,7 +14474,7 @@
         <v>801.32</v>
       </c>
     </row>
-    <row r="79" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C79" s="1">
         <v>232.51</v>
       </c>
@@ -14536,7 +14536,7 @@
         <v>704.69</v>
       </c>
     </row>
-    <row r="80" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C80" s="1">
         <v>239.62</v>
       </c>
@@ -14598,7 +14598,7 @@
         <v>409.15</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C81" s="1">
         <v>244.79</v>
       </c>
@@ -14660,7 +14660,7 @@
         <v>405.42999999999995</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C82" s="1">
         <v>241.77</v>
       </c>
@@ -14722,7 +14722,7 @@
         <v>338.5</v>
       </c>
     </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C83" s="1">
         <v>248.98</v>
       </c>
@@ -14784,7 +14784,7 @@
         <v>264.44</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C84" s="1">
         <v>255.84</v>
       </c>
@@ -14846,7 +14846,7 @@
         <v>222.99</v>
       </c>
     </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C85" s="1">
         <v>256.73</v>
       </c>
@@ -14908,7 +14908,7 @@
         <v>207.19</v>
       </c>
     </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C86" s="1">
         <v>257.29000000000002</v>
       </c>
@@ -14970,7 +14970,7 @@
         <v>173.63</v>
       </c>
     </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C87" s="1">
         <v>262.55</v>
       </c>
@@ -15032,7 +15032,7 @@
         <v>85.990000000000009</v>
       </c>
     </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C88" s="1">
         <v>262.56</v>
       </c>
@@ -15094,7 +15094,7 @@
         <v>109.3</v>
       </c>
     </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C89" s="1">
         <v>269.87</v>
       </c>
@@ -15156,7 +15156,7 @@
         <v>23.13</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C90" s="1">
         <v>269.56</v>
       </c>
@@ -15218,7 +15218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C91" s="1">
         <v>263.97000000000003</v>
       </c>
@@ -15280,7 +15280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C92" s="1">
         <v>258.26</v>
       </c>
@@ -15342,7 +15342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C93" s="1">
         <v>261.5</v>
       </c>
@@ -15404,7 +15404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C94" s="1">
         <v>260.54000000000002</v>
       </c>
@@ -15466,7 +15466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C95" s="1">
         <v>256.16000000000003</v>
       </c>
@@ -15528,7 +15528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C96" s="1">
         <v>252.79</v>
       </c>
@@ -15590,7 +15590,7 @@
         <v>78.88</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C97" s="1">
         <v>249.29</v>
       </c>
@@ -15652,7 +15652,7 @@
         <v>19.940000000000001</v>
       </c>
     </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C98" s="1">
         <v>247.92</v>
       </c>
@@ -15724,15 +15724,15 @@
   <dimension ref="A1:M97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -15755,7 +15755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>488.6</v>
       </c>
@@ -15783,7 +15783,7 @@
         <v>5.6724391528500994E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>489.53</v>
       </c>
@@ -15812,7 +15812,7 @@
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>490</v>
       </c>
@@ -15841,7 +15841,7 @@
       </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -15873,7 +15873,7 @@
       </c>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>477.5</v>
       </c>
@@ -15902,7 +15902,7 @@
       </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>461.01</v>
       </c>
@@ -15931,7 +15931,7 @@
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>450.17</v>
       </c>
@@ -15960,7 +15960,7 @@
       </c>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -15992,7 +15992,7 @@
       </c>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>421.53</v>
       </c>
@@ -16021,7 +16021,7 @@
       </c>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>400.7</v>
       </c>
@@ -16050,7 +16050,7 @@
       </c>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>389.45000000000005</v>
       </c>
@@ -16079,7 +16079,7 @@
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -16111,7 +16111,7 @@
       </c>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>372.33000000000004</v>
       </c>
@@ -16140,7 +16140,7 @@
       </c>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>349.46000000000004</v>
       </c>
@@ -16169,7 +16169,7 @@
       </c>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>333.23</v>
       </c>
@@ -16198,7 +16198,7 @@
       </c>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -16230,7 +16230,7 @@
       </c>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>305.75</v>
       </c>
@@ -16259,7 +16259,7 @@
       </c>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>290.89</v>
       </c>
@@ -16288,7 +16288,7 @@
       </c>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>275.79999999999995</v>
       </c>
@@ -16317,7 +16317,7 @@
       </c>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5</v>
       </c>
@@ -16349,7 +16349,7 @@
       </c>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>244.60000000000002</v>
       </c>
@@ -16378,7 +16378,7 @@
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>228.05</v>
       </c>
@@ -16407,7 +16407,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>216.79000000000002</v>
       </c>
@@ -16436,7 +16436,7 @@
       </c>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>6</v>
       </c>
@@ -16468,7 +16468,7 @@
       </c>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>193.11</v>
       </c>
@@ -16497,7 +16497,7 @@
       </c>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>180.98000000000002</v>
       </c>
@@ -16525,7 +16525,7 @@
         <v>3.5914341543345227E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>167.58999999999997</v>
       </c>
@@ -16553,7 +16553,7 @@
         <v>4.4500633735269956E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>7</v>
       </c>
@@ -16584,7 +16584,7 @@
         <v>4.9564538943317818E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>135.53</v>
       </c>
@@ -16612,7 +16612,7 @@
         <v>7.5998275783319665E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>126.21000000000001</v>
       </c>
@@ -16640,7 +16640,7 @@
         <v>9.3744023048552162E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>104.66999999999999</v>
       </c>
@@ -16668,7 +16668,7 @@
         <v>1.079593545891569E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>8</v>
       </c>
@@ -16699,7 +16699,7 @@
         <v>1.2682734139490275E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>92.509999999999991</v>
       </c>
@@ -16727,7 +16727,7 @@
         <v>1.5604749731661649E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>91.17</v>
       </c>
@@ -16755,7 +16755,7 @@
         <v>1.7086186212546824E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>90.13</v>
       </c>
@@ -16783,7 +16783,7 @@
         <v>1.8286126121882712E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>9</v>
       </c>
@@ -16814,7 +16814,7 @@
         <v>1.8295180757285111E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>87.28</v>
       </c>
@@ -16842,7 +16842,7 @@
         <v>1.8958042514501703E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>78.069999999999993</v>
       </c>
@@ -16870,7 +16870,7 @@
         <v>1.9079142687494301E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>73.400000000000006</v>
       </c>
@@ -16898,7 +16898,7 @@
         <v>1.8594429766716915E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>10</v>
       </c>
@@ -16929,7 +16929,7 @@
         <v>1.6629306259705861E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>68.88</v>
       </c>
@@ -16957,7 +16957,7 @@
         <v>1.5912696543573589E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>67</v>
       </c>
@@ -16985,7 +16985,7 @@
         <v>1.6756160363569937E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>65.64</v>
       </c>
@@ -17013,7 +17013,7 @@
         <v>1.6318727804992241E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>11</v>
       </c>
@@ -17044,7 +17044,7 @@
         <v>1.6291474690554496E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>67.73</v>
       </c>
@@ -17072,7 +17072,7 @@
         <v>1.7065757527747333E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>70.03</v>
       </c>
@@ -17100,7 +17100,7 @@
         <v>1.6358826904631411E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>75.31</v>
       </c>
@@ -17128,7 +17128,7 @@
         <v>1.5680353707065869E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>12</v>
       </c>
@@ -17159,7 +17159,7 @@
         <v>1.3001475147300634E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>95.949999999999989</v>
       </c>
@@ -17187,7 +17187,7 @@
         <v>1.3347781498355719E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>115.14</v>
       </c>
@@ -17215,7 +17215,7 @@
         <v>1.4161048332305659E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>132.54</v>
       </c>
@@ -17243,7 +17243,7 @@
         <v>1.3539356173495026E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>13</v>
       </c>
@@ -17274,7 +17274,7 @@
         <v>1.3589401990842246E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>161.26999999999998</v>
       </c>
@@ -17302,7 +17302,7 @@
         <v>1.3558937380104144E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>170.49</v>
       </c>
@@ -17330,7 +17330,7 @@
         <v>1.3399656084429529E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>174.83999999999997</v>
       </c>
@@ -17358,7 +17358,7 @@
         <v>1.3866438150863254E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>14</v>
       </c>
@@ -17389,7 +17389,7 @@
         <v>1.2273000736503156E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>184</v>
       </c>
@@ -17417,7 +17417,7 @@
         <v>1.241426196960355E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>202.81</v>
       </c>
@@ -17445,7 +17445,7 @@
         <v>1.289125837843702E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>225.09</v>
       </c>
@@ -17473,7 +17473,7 @@
         <v>1.2852006756988223E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>15</v>
       </c>
@@ -17504,7 +17504,7 @@
         <v>1.146794105976524E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>245.74</v>
       </c>
@@ -17532,7 +17532,7 @@
         <v>1.2385358502900345E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>263.06</v>
       </c>
@@ -17560,7 +17560,7 @@
         <v>1.3549748932355901E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>277.76</v>
       </c>
@@ -17588,7 +17588,7 @@
         <v>1.3874957536882256E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>16</v>
       </c>
@@ -17619,7 +17619,7 @@
         <v>1.2962758775235231E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>303.76</v>
       </c>
@@ -17647,7 +17647,7 @@
         <v>1.3977591606147808E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>309.93</v>
       </c>
@@ -17671,11 +17671,11 @@
         <v>2973</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" ref="I67:I97" si="3">H67/SUM($H$2:$H$97)</f>
+        <f t="shared" ref="I67:I96" si="3">H67/SUM($H$2:$H$97)</f>
         <v>1.3260803473554404E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>320.97000000000003</v>
       </c>
@@ -17703,7 +17703,7 @@
         <v>1.2136199914931037E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>17</v>
       </c>
@@ -17734,7 +17734,7 @@
         <v>1.1761079305403309E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>352.4</v>
       </c>
@@ -17762,7 +17762,7 @@
         <v>1.2901249700260348E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>372.43</v>
       </c>
@@ -17790,7 +17790,7 @@
         <v>1.2924265423746235E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>401.90999999999997</v>
       </c>
@@ -17818,7 +17818,7 @@
         <v>1.4137854192358643E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>18</v>
       </c>
@@ -17849,7 +17849,7 @@
         <v>1.5378205430140684E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>460.86</v>
       </c>
@@ -17877,7 +17877,7 @@
         <v>1.7525447539851108E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>471.86</v>
       </c>
@@ -17905,7 +17905,7 @@
         <v>1.8354459626495848E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>480.92999999999995</v>
       </c>
@@ -17933,7 +17933,7 @@
         <v>1.7741599082511196E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>19</v>
       </c>
@@ -17964,7 +17964,7 @@
         <v>1.7018967810815754E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B78">
         <v>499.34</v>
       </c>
@@ -17992,7 +17992,7 @@
         <v>1.6722305840070343E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B79">
         <v>514.96</v>
       </c>
@@ -18020,7 +18020,7 @@
         <v>1.5140688516260169E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>524.45000000000005</v>
       </c>
@@ -18048,7 +18048,7 @@
         <v>1.4935241961267933E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>20</v>
       </c>
@@ -18079,7 +18079,7 @@
         <v>1.4262745715150276E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>543.46</v>
       </c>
@@ -18107,7 +18107,7 @@
         <v>1.3096838745775104E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>549.79999999999995</v>
       </c>
@@ -18135,7 +18135,7 @@
         <v>1.2435359716132277E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B84">
         <v>551.09</v>
       </c>
@@ -18163,7 +18163,7 @@
         <v>1.1498004233465794E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>21</v>
       </c>
@@ -18194,7 +18194,7 @@
         <v>1.1091972972047141E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B86">
         <v>568.16000000000008</v>
       </c>
@@ -18222,7 +18222,7 @@
         <v>1.0149354203777296E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B87">
         <v>565.67000000000007</v>
       </c>
@@ -18250,7 +18250,7 @@
         <v>1.0197169815360379E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B88">
         <v>582.52</v>
       </c>
@@ -18278,7 +18278,7 @@
         <v>9.5526849536402714E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>22</v>
       </c>
@@ -18309,7 +18309,7 @@
         <v>9.1110150041107188E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B90">
         <v>575.29</v>
       </c>
@@ -18337,7 +18337,7 @@
         <v>8.4628726049374298E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B91">
         <v>575.12</v>
       </c>
@@ -18365,7 +18365,7 @@
         <v>8.1787443905864659E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B92">
         <v>573.97</v>
       </c>
@@ -18393,7 +18393,7 @@
         <v>8.0904282423266694E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>23</v>
       </c>
@@ -18424,7 +18424,7 @@
         <v>7.6604445710011888E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B94">
         <v>557.79</v>
       </c>
@@ -18452,7 +18452,7 @@
         <v>7.0157812928199536E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B95">
         <v>552.66999999999996</v>
       </c>
@@ -18480,7 +18480,7 @@
         <v>6.9724260927651448E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>541.21</v>
       </c>
@@ -18508,7 +18508,7 @@
         <v>6.4402097892116593E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>24</v>
       </c>

--- a/Data/Demand distribution by time of the day.xlsx
+++ b/Data/Demand distribution by time of the day.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/a_rojasa55_uniandes_edu_co/Documents/Documentos/MOPTA-23/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{2CEA4F1D-BCC8-4D5C-8069-9684EB910C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD3E9EDC-A5FE-4A08-A451-442E9D957C9A}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{2CEA4F1D-BCC8-4D5C-8069-9684EB910C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A58BDA7A-1D4F-4042-89B3-3946AF0918C5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{39F7E8F1-42CB-42F6-8721-14EFCF583E1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{39F7E8F1-42CB-42F6-8721-14EFCF583E1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="old_dist" sheetId="3" r:id="rId3"/>
+    <sheet name="new_dist" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="9">
   <si>
     <t>home_l1</t>
   </si>
@@ -174,7 +175,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2678,7 +2679,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="218277616"/>
@@ -2737,7 +2738,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="218303536"/>
@@ -2779,7 +2780,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2816,7 +2817,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2852,7 +2853,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$B$1</c:f>
+              <c:f>old_dist!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2872,7 +2873,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$A$2:$A$97</c:f>
+              <c:f>old_dist!$A$2:$A$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -2953,7 +2954,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$2:$B$97</c:f>
+              <c:f>old_dist!$B$2:$B$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -3259,7 +3260,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$C$1</c:f>
+              <c:f>old_dist!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3279,7 +3280,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$A$2:$A$97</c:f>
+              <c:f>old_dist!$A$2:$A$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -3360,7 +3361,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$2:$C$97</c:f>
+              <c:f>old_dist!$C$2:$C$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -3666,7 +3667,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$D$1</c:f>
+              <c:f>old_dist!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3686,7 +3687,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$A$2:$A$97</c:f>
+              <c:f>old_dist!$A$2:$A$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -3767,7 +3768,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$D$2:$D$97</c:f>
+              <c:f>old_dist!$D$2:$D$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -4073,7 +4074,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$E$1</c:f>
+              <c:f>old_dist!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4093,7 +4094,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$A$2:$A$97</c:f>
+              <c:f>old_dist!$A$2:$A$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -4174,7 +4175,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$E$2:$E$97</c:f>
+              <c:f>old_dist!$E$2:$E$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -4480,7 +4481,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$F$1</c:f>
+              <c:f>old_dist!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4500,7 +4501,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$A$2:$A$97</c:f>
+              <c:f>old_dist!$A$2:$A$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -4581,7 +4582,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$F$2:$F$97</c:f>
+              <c:f>old_dist!$F$2:$F$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -4887,7 +4888,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$G$1</c:f>
+              <c:f>old_dist!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4907,7 +4908,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$A$2:$A$97</c:f>
+              <c:f>old_dist!$A$2:$A$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -4988,7 +4989,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$G$2:$G$97</c:f>
+              <c:f>old_dist!$G$2:$G$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -5341,7 +5342,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1291907536"/>
@@ -5400,7 +5401,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1291899856"/>
@@ -5442,7 +5443,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5479,7 +5480,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6999,9 +7000,9 @@
       <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -7024,7 +7025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7051,7 +7052,7 @@
         <v>4060.46</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7078,7 +7079,7 @@
         <v>4023.9199999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7105,7 +7106,7 @@
         <v>3995.5299999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7135,7 +7136,7 @@
         <v>3970.98</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7162,7 +7163,7 @@
         <v>3956.21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7189,7 +7190,7 @@
         <v>3941.22</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7216,7 +7217,7 @@
         <v>3938.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7246,7 +7247,7 @@
         <v>3934.1600000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7273,7 +7274,7 @@
         <v>3916.57</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7300,7 +7301,7 @@
         <v>3928.48</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7327,7 +7328,7 @@
         <v>3920.9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7357,7 +7358,7 @@
         <v>3926.36</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7384,7 +7385,7 @@
         <v>3947.5100000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7411,7 +7412,7 @@
         <v>3943.5899999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7438,7 +7439,7 @@
         <v>3898.7400000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7468,7 +7469,7 @@
         <v>3906.7400000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7495,7 +7496,7 @@
         <v>3900.0599999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7522,7 +7523,7 @@
         <v>3904.5499999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7549,7 +7550,7 @@
         <v>3874.63</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7579,7 +7580,7 @@
         <v>3926.39</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7606,7 +7607,7 @@
         <v>3985.98</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7633,7 +7634,7 @@
         <v>4053.01</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7660,7 +7661,7 @@
         <v>4029.66</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7690,7 +7691,7 @@
         <v>4157.43</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7717,7 +7718,7 @@
         <v>4372.26</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7744,7 +7745,7 @@
         <v>4356.4500000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7771,7 +7772,7 @@
         <v>4452.37</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7801,7 +7802,7 @@
         <v>4750.1099999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7828,7 +7829,7 @@
         <v>5043.8200000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7855,7 +7856,7 @@
         <v>5387.130000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7882,7 +7883,7 @@
         <v>5792.76</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7912,7 +7913,7 @@
         <v>6341.2800000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -7939,7 +7940,7 @@
         <v>7490.4699999999993</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7966,7 +7967,7 @@
         <v>7874.6699999999992</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7993,7 +7994,7 @@
         <v>8223.41</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -8023,7 +8024,7 @@
         <v>8505.7200000000012</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -8050,7 +8051,7 @@
         <v>9501.5499999999993</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -8077,7 +8078,7 @@
         <v>9856.4200000000019</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -8104,7 +8105,7 @@
         <v>10232.740000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -8134,7 +8135,7 @@
         <v>9843.5299999999988</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -8161,7 +8162,7 @@
         <v>10356.09</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -8188,7 +8189,7 @@
         <v>10177.049999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -8215,7 +8216,7 @@
         <v>9913.32</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -8245,7 +8246,7 @@
         <v>9596.4699999999993</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -8272,7 +8273,7 @@
         <v>9960.66</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -8299,7 +8300,7 @@
         <v>9653.7800000000007</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -8326,7 +8327,7 @@
         <v>9194.51</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -8356,7 +8357,7 @@
         <v>9070.9500000000007</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -8383,7 +8384,7 @@
         <v>9112.7100000000009</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -8410,7 +8411,7 @@
         <v>9091.1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -8437,7 +8438,7 @@
         <v>8608.17</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -8467,7 +8468,7 @@
         <v>8555.4</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -8494,7 +8495,7 @@
         <v>8302.5499999999993</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -8521,7 +8522,7 @@
         <v>8400.98</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -8548,7 +8549,7 @@
         <v>8496.7100000000009</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -8578,7 +8579,7 @@
         <v>8559.2199999999993</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -8605,7 +8606,7 @@
         <v>8366.14</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -8632,7 +8633,7 @@
         <v>8160.33</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -8659,7 +8660,7 @@
         <v>7909.5999999999995</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -8689,7 +8690,7 @@
         <v>7565.630000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -8716,7 +8717,7 @@
         <v>7389.3099999999995</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -8743,7 +8744,7 @@
         <v>7451.4000000000005</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -8770,7 +8771,7 @@
         <v>7511.8</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -8800,7 +8801,7 @@
         <v>7376.3499999999985</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -8827,7 +8828,7 @@
         <v>7366.58</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -8854,7 +8855,7 @@
         <v>7291.3099999999995</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -8881,7 +8882,7 @@
         <v>7066.66</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -8911,7 +8912,7 @@
         <v>6843.94</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -8938,7 +8939,7 @@
         <v>6404.9500000000007</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -8965,7 +8966,7 @@
         <v>6207.9500000000007</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -8992,7 +8993,7 @@
         <v>6292.85</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -9022,7 +9023,7 @@
         <v>6322.6399999999994</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -9049,7 +9050,7 @@
         <v>6504.65</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -9076,7 +9077,7 @@
         <v>6588.76</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -9103,7 +9104,7 @@
         <v>6697.8700000000008</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -9133,7 +9134,7 @@
         <v>6550.0599999999995</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -9160,7 +9161,7 @@
         <v>6855.9</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -9187,7 +9188,7 @@
         <v>6767.59</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -9214,7 +9215,7 @@
         <v>5993.5</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -9244,7 +9245,7 @@
         <v>5978.74</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -9271,7 +9272,7 @@
         <v>5725.55</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -9298,7 +9299,7 @@
         <v>5274.52</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -9325,7 +9326,7 @@
         <v>5108.83</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -9355,7 +9356,7 @@
         <v>4783.6499999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -9382,7 +9383,7 @@
         <v>4502.28</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -9409,7 +9410,7 @@
         <v>4474.1799999999994</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -9436,7 +9437,7 @@
         <v>4445.05</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -9466,7 +9467,7 @@
         <v>4383.2</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -9493,7 +9494,7 @@
         <v>4346.5499999999993</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -9520,7 +9521,7 @@
         <v>4228.63</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -9547,7 +9548,7 @@
         <v>4196.33</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -9577,7 +9578,7 @@
         <v>4215.9800000000005</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -9604,7 +9605,7 @@
         <v>4259.1099999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -9631,7 +9632,7 @@
         <v>4231.9299999999994</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -9658,7 +9659,7 @@
         <v>4174.2599999999993</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -9705,9 +9706,9 @@
       <selection activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -9727,7 +9728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>7</v>
       </c>
@@ -9762,7 +9763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C3" s="1">
         <v>233.8</v>
       </c>
@@ -9824,7 +9825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>234.73</v>
       </c>
@@ -9886,7 +9887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>235.2</v>
       </c>
@@ -9948,7 +9949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>230.79</v>
       </c>
@@ -10010,7 +10011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>224.95</v>
       </c>
@@ -10072,7 +10073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>215.51</v>
       </c>
@@ -10134,7 +10135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>211.46</v>
       </c>
@@ -10196,7 +10197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>206.96</v>
       </c>
@@ -10258,7 +10259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <v>199.41</v>
       </c>
@@ -10320,7 +10321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <v>186.91</v>
       </c>
@@ -10382,7 +10383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <v>181.27</v>
       </c>
@@ -10444,7 +10445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>176.06</v>
       </c>
@@ -10506,7 +10507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>171.3</v>
       </c>
@@ -10568,7 +10569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <v>162.56</v>
       </c>
@@ -10630,7 +10631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
         <v>158.63999999999999</v>
       </c>
@@ -10692,7 +10693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
         <v>153.22</v>
       </c>
@@ -10754,7 +10755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
         <v>145.94999999999999</v>
       </c>
@@ -10816,7 +10817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <v>139.22</v>
       </c>
@@ -10878,7 +10879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
         <v>131.91999999999999</v>
       </c>
@@ -10940,7 +10941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
         <v>127.09</v>
       </c>
@@ -11002,7 +11003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
         <v>111.48</v>
       </c>
@@ -11064,7 +11065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
         <v>101.92</v>
       </c>
@@ -11126,7 +11127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
         <v>95.01</v>
       </c>
@@ -11188,7 +11189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
         <v>88.25</v>
       </c>
@@ -11250,7 +11251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C27" s="1">
         <v>82.95</v>
       </c>
@@ -11312,7 +11313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
         <v>76.510000000000005</v>
       </c>
@@ -11374,7 +11375,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C29" s="1">
         <v>68.77</v>
       </c>
@@ -11436,7 +11437,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C30" s="1">
         <v>65.069999999999993</v>
       </c>
@@ -11498,7 +11499,7 @@
         <v>19.05</v>
       </c>
     </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C31" s="1">
         <v>55.12</v>
       </c>
@@ -11560,7 +11561,7 @@
         <v>228.32999999999998</v>
       </c>
     </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C32" s="1">
         <v>50.21</v>
       </c>
@@ -11622,7 +11623,7 @@
         <v>383.62</v>
       </c>
     </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C33" s="1">
         <v>43.48</v>
       </c>
@@ -11684,7 +11685,7 @@
         <v>308.08999999999997</v>
       </c>
     </row>
-    <row r="34" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C34" s="1">
         <v>40.51</v>
       </c>
@@ -11746,7 +11747,7 @@
         <v>428.62</v>
       </c>
     </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C35" s="1">
         <v>39.97</v>
       </c>
@@ -11808,7 +11809,7 @@
         <v>603.41</v>
       </c>
     </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
         <v>41.99</v>
       </c>
@@ -11870,7 +11871,7 @@
         <v>783.45</v>
       </c>
     </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C37" s="1">
         <v>42.54</v>
       </c>
@@ -11932,7 +11933,7 @@
         <v>826.96</v>
       </c>
     </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C38" s="1">
         <v>44.8</v>
       </c>
@@ -11994,7 +11995,7 @@
         <v>762.65</v>
       </c>
     </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C39" s="1">
         <v>43.32</v>
       </c>
@@ -12056,7 +12057,7 @@
         <v>705.19</v>
       </c>
     </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C40" s="1">
         <v>37.78</v>
       </c>
@@ -12118,7 +12119,7 @@
         <v>876.96</v>
       </c>
     </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C41" s="1">
         <v>36.159999999999997</v>
       </c>
@@ -12180,7 +12181,7 @@
         <v>852.54</v>
       </c>
     </row>
-    <row r="42" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C42" s="1">
         <v>36.72</v>
       </c>
@@ -12242,7 +12243,7 @@
         <v>570.76</v>
       </c>
     </row>
-    <row r="43" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C43" s="1">
         <v>34.799999999999997</v>
       </c>
@@ -12304,7 +12305,7 @@
         <v>308.5</v>
       </c>
     </row>
-    <row r="44" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C44" s="1">
         <v>31.03</v>
       </c>
@@ -12366,7 +12367,7 @@
         <v>509.46000000000004</v>
       </c>
     </row>
-    <row r="45" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C45" s="1">
         <v>28.84</v>
       </c>
@@ -12428,7 +12429,7 @@
         <v>551.28</v>
       </c>
     </row>
-    <row r="46" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C46" s="1">
         <v>28.86</v>
       </c>
@@ -12490,7 +12491,7 @@
         <v>574.91000000000008</v>
       </c>
     </row>
-    <row r="47" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C47" s="1">
         <v>28.81</v>
       </c>
@@ -12552,7 +12553,7 @@
         <v>899.66</v>
       </c>
     </row>
-    <row r="48" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C48" s="1">
         <v>30.96</v>
       </c>
@@ -12614,7 +12615,7 @@
         <v>823.41</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C49" s="1">
         <v>34.06</v>
       </c>
@@ -12676,7 +12677,7 @@
         <v>770.53</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C50" s="1">
         <v>34.85</v>
       </c>
@@ -12738,7 +12739,7 @@
         <v>394.74</v>
       </c>
     </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C51" s="1">
         <v>43.37</v>
       </c>
@@ -12800,7 +12801,7 @@
         <v>508.19</v>
       </c>
     </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C52" s="1">
         <v>45.16</v>
       </c>
@@ -12862,7 +12863,7 @@
         <v>666.16</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C53" s="1">
         <v>53.4</v>
       </c>
@@ -12924,7 +12925,7 @@
         <v>626.96</v>
       </c>
     </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C54" s="1">
         <v>62.07</v>
       </c>
@@ -12986,7 +12987,7 @@
         <v>682.8</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C55" s="1">
         <v>70.19</v>
       </c>
@@ -13048,7 +13049,7 @@
         <v>673.74</v>
       </c>
     </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C56" s="1">
         <v>72.760000000000005</v>
       </c>
@@ -13110,7 +13111,7 @@
         <v>657.89</v>
       </c>
     </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C57" s="1">
         <v>68.739999999999995</v>
       </c>
@@ -13172,7 +13173,7 @@
         <v>779.03</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C58" s="1">
         <v>69.2</v>
       </c>
@@ -13234,7 +13235,7 @@
         <v>536.39</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C59" s="1">
         <v>70.5</v>
       </c>
@@ -13296,7 +13297,7 @@
         <v>571.5</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C60" s="1">
         <v>76.650000000000006</v>
       </c>
@@ -13358,7 +13359,7 @@
         <v>558.71</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C61" s="1">
         <v>88.15</v>
       </c>
@@ -13420,7 +13421,7 @@
         <v>635.16000000000008</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C62" s="1">
         <v>96.6</v>
       </c>
@@ -13482,7 +13483,7 @@
         <v>367.82000000000005</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C63" s="1">
         <v>104.01</v>
       </c>
@@ -13544,7 +13545,7 @@
         <v>552.97</v>
       </c>
     </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C64" s="1">
         <v>105.22</v>
       </c>
@@ -13606,7 +13607,7 @@
         <v>744.01</v>
       </c>
     </row>
-    <row r="65" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C65" s="1">
         <v>113.01</v>
       </c>
@@ -13668,7 +13669,7 @@
         <v>869.13</v>
       </c>
     </row>
-    <row r="66" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C66" s="1">
         <v>111.68</v>
       </c>
@@ -13730,7 +13731,7 @@
         <v>690.31999999999994</v>
       </c>
     </row>
-    <row r="67" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C67" s="1">
         <v>131.06</v>
       </c>
@@ -13792,7 +13793,7 @@
         <v>789.37</v>
       </c>
     </row>
-    <row r="68" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C68" s="1">
         <v>140.22</v>
       </c>
@@ -13854,7 +13855,7 @@
         <v>639.72</v>
       </c>
     </row>
-    <row r="69" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C69" s="1">
         <v>138.07</v>
       </c>
@@ -13916,7 +13917,7 @@
         <v>426.07</v>
       </c>
     </row>
-    <row r="70" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C70" s="1">
         <v>143.28</v>
       </c>
@@ -13978,7 +13979,7 @@
         <v>385.99</v>
       </c>
     </row>
-    <row r="71" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C71" s="1">
         <v>148.38</v>
       </c>
@@ -14040,7 +14041,7 @@
         <v>575.28</v>
       </c>
     </row>
-    <row r="72" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C72" s="1">
         <v>153.35</v>
       </c>
@@ -14102,7 +14103,7 @@
         <v>404.9</v>
       </c>
     </row>
-    <row r="73" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C73" s="1">
         <v>167.89</v>
       </c>
@@ -14164,7 +14165,7 @@
         <v>526.33000000000004</v>
       </c>
     </row>
-    <row r="74" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C74" s="1">
         <v>183.58</v>
       </c>
@@ -14226,7 +14227,7 @@
         <v>639.70000000000005</v>
       </c>
     </row>
-    <row r="75" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C75" s="1">
         <v>209.39</v>
       </c>
@@ -14288,7 +14289,7 @@
         <v>957.56</v>
       </c>
     </row>
-    <row r="76" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C76" s="1">
         <v>218.92</v>
       </c>
@@ -14350,7 +14351,7 @@
         <v>1104.6500000000001</v>
       </c>
     </row>
-    <row r="77" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C77" s="1">
         <v>225.45</v>
       </c>
@@ -14412,7 +14413,7 @@
         <v>918.42000000000007</v>
       </c>
     </row>
-    <row r="78" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C78" s="1">
         <v>231.66</v>
       </c>
@@ -14474,7 +14475,7 @@
         <v>801.32</v>
       </c>
     </row>
-    <row r="79" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C79" s="1">
         <v>232.51</v>
       </c>
@@ -14536,7 +14537,7 @@
         <v>704.69</v>
       </c>
     </row>
-    <row r="80" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C80" s="1">
         <v>239.62</v>
       </c>
@@ -14598,7 +14599,7 @@
         <v>409.15</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C81" s="1">
         <v>244.79</v>
       </c>
@@ -14660,7 +14661,7 @@
         <v>405.42999999999995</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C82" s="1">
         <v>241.77</v>
       </c>
@@ -14722,7 +14723,7 @@
         <v>338.5</v>
       </c>
     </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C83" s="1">
         <v>248.98</v>
       </c>
@@ -14784,7 +14785,7 @@
         <v>264.44</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C84" s="1">
         <v>255.84</v>
       </c>
@@ -14846,7 +14847,7 @@
         <v>222.99</v>
       </c>
     </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C85" s="1">
         <v>256.73</v>
       </c>
@@ -14908,7 +14909,7 @@
         <v>207.19</v>
       </c>
     </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C86" s="1">
         <v>257.29000000000002</v>
       </c>
@@ -14970,7 +14971,7 @@
         <v>173.63</v>
       </c>
     </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C87" s="1">
         <v>262.55</v>
       </c>
@@ -15032,7 +15033,7 @@
         <v>85.990000000000009</v>
       </c>
     </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C88" s="1">
         <v>262.56</v>
       </c>
@@ -15094,7 +15095,7 @@
         <v>109.3</v>
       </c>
     </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C89" s="1">
         <v>269.87</v>
       </c>
@@ -15156,7 +15157,7 @@
         <v>23.13</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C90" s="1">
         <v>269.56</v>
       </c>
@@ -15218,7 +15219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C91" s="1">
         <v>263.97000000000003</v>
       </c>
@@ -15280,7 +15281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C92" s="1">
         <v>258.26</v>
       </c>
@@ -15342,7 +15343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C93" s="1">
         <v>261.5</v>
       </c>
@@ -15404,7 +15405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C94" s="1">
         <v>260.54000000000002</v>
       </c>
@@ -15466,7 +15467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C95" s="1">
         <v>256.16000000000003</v>
       </c>
@@ -15528,7 +15529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C96" s="1">
         <v>252.79</v>
       </c>
@@ -15590,7 +15591,7 @@
         <v>78.88</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C97" s="1">
         <v>249.29</v>
       </c>
@@ -15652,7 +15653,7 @@
         <v>19.940000000000001</v>
       </c>
     </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C98" s="1">
         <v>247.92</v>
       </c>
@@ -15723,16 +15724,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79F362F-DA40-46D8-8D87-11F9F48BECF0}">
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="K84" sqref="K84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="20.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -15755,7 +15756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>488.6</v>
       </c>
@@ -15783,7 +15784,7 @@
         <v>5.6724391528500994E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>489.53</v>
       </c>
@@ -15812,7 +15813,7 @@
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>490</v>
       </c>
@@ -15841,7 +15842,7 @@
       </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -15873,7 +15874,7 @@
       </c>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>477.5</v>
       </c>
@@ -15902,7 +15903,7 @@
       </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>461.01</v>
       </c>
@@ -15931,7 +15932,7 @@
       </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>450.17</v>
       </c>
@@ -15960,7 +15961,7 @@
       </c>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -15992,7 +15993,7 @@
       </c>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>421.53</v>
       </c>
@@ -16021,7 +16022,7 @@
       </c>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>400.7</v>
       </c>
@@ -16050,7 +16051,7 @@
       </c>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>389.45000000000005</v>
       </c>
@@ -16079,7 +16080,7 @@
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -16111,7 +16112,7 @@
       </c>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>372.33000000000004</v>
       </c>
@@ -16140,7 +16141,7 @@
       </c>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>349.46000000000004</v>
       </c>
@@ -16169,7 +16170,7 @@
       </c>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>333.23</v>
       </c>
@@ -16198,7 +16199,7 @@
       </c>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -16230,7 +16231,7 @@
       </c>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>305.75</v>
       </c>
@@ -16259,7 +16260,7 @@
       </c>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>290.89</v>
       </c>
@@ -16288,7 +16289,7 @@
       </c>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>275.79999999999995</v>
       </c>
@@ -16317,7 +16318,7 @@
       </c>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -16349,7 +16350,7 @@
       </c>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>244.60000000000002</v>
       </c>
@@ -16378,7 +16379,7 @@
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>228.05</v>
       </c>
@@ -16407,7 +16408,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>216.79000000000002</v>
       </c>
@@ -16436,7 +16437,7 @@
       </c>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -16468,7 +16469,7 @@
       </c>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>193.11</v>
       </c>
@@ -16497,7 +16498,7 @@
       </c>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>180.98000000000002</v>
       </c>
@@ -16525,7 +16526,7 @@
         <v>3.5914341543345227E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>167.58999999999997</v>
       </c>
@@ -16553,7 +16554,7 @@
         <v>4.4500633735269956E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>7</v>
       </c>
@@ -16584,7 +16585,7 @@
         <v>4.9564538943317818E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>135.53</v>
       </c>
@@ -16612,7 +16613,7 @@
         <v>7.5998275783319665E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>126.21000000000001</v>
       </c>
@@ -16640,7 +16641,7 @@
         <v>9.3744023048552162E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>104.66999999999999</v>
       </c>
@@ -16668,7 +16669,7 @@
         <v>1.079593545891569E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
@@ -16699,7 +16700,7 @@
         <v>1.2682734139490275E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>92.509999999999991</v>
       </c>
@@ -16727,7 +16728,7 @@
         <v>1.5604749731661649E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>91.17</v>
       </c>
@@ -16755,7 +16756,7 @@
         <v>1.7086186212546824E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>90.13</v>
       </c>
@@ -16783,7 +16784,7 @@
         <v>1.8286126121882712E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9</v>
       </c>
@@ -16814,7 +16815,7 @@
         <v>1.8295180757285111E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>87.28</v>
       </c>
@@ -16842,7 +16843,7 @@
         <v>1.8958042514501703E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>78.069999999999993</v>
       </c>
@@ -16870,7 +16871,7 @@
         <v>1.9079142687494301E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>73.400000000000006</v>
       </c>
@@ -16898,7 +16899,7 @@
         <v>1.8594429766716915E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10</v>
       </c>
@@ -16929,7 +16930,7 @@
         <v>1.6629306259705861E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>68.88</v>
       </c>
@@ -16957,7 +16958,7 @@
         <v>1.5912696543573589E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>67</v>
       </c>
@@ -16985,7 +16986,7 @@
         <v>1.6756160363569937E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>65.64</v>
       </c>
@@ -17013,7 +17014,7 @@
         <v>1.6318727804992241E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>11</v>
       </c>
@@ -17044,7 +17045,7 @@
         <v>1.6291474690554496E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>67.73</v>
       </c>
@@ -17072,7 +17073,7 @@
         <v>1.7065757527747333E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>70.03</v>
       </c>
@@ -17100,7 +17101,7 @@
         <v>1.6358826904631411E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>75.31</v>
       </c>
@@ -17128,7 +17129,7 @@
         <v>1.5680353707065869E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>12</v>
       </c>
@@ -17159,7 +17160,7 @@
         <v>1.3001475147300634E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>95.949999999999989</v>
       </c>
@@ -17187,7 +17188,7 @@
         <v>1.3347781498355719E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>115.14</v>
       </c>
@@ -17215,7 +17216,7 @@
         <v>1.4161048332305659E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>132.54</v>
       </c>
@@ -17243,7 +17244,7 @@
         <v>1.3539356173495026E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>13</v>
       </c>
@@ -17274,7 +17275,7 @@
         <v>1.3589401990842246E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>161.26999999999998</v>
       </c>
@@ -17302,7 +17303,7 @@
         <v>1.3558937380104144E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>170.49</v>
       </c>
@@ -17330,7 +17331,7 @@
         <v>1.3399656084429529E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>174.83999999999997</v>
       </c>
@@ -17358,7 +17359,7 @@
         <v>1.3866438150863254E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>14</v>
       </c>
@@ -17389,7 +17390,7 @@
         <v>1.2273000736503156E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>184</v>
       </c>
@@ -17417,7 +17418,7 @@
         <v>1.241426196960355E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>202.81</v>
       </c>
@@ -17445,7 +17446,7 @@
         <v>1.289125837843702E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>225.09</v>
       </c>
@@ -17473,7 +17474,7 @@
         <v>1.2852006756988223E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>15</v>
       </c>
@@ -17504,7 +17505,7 @@
         <v>1.146794105976524E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>245.74</v>
       </c>
@@ -17532,7 +17533,7 @@
         <v>1.2385358502900345E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>263.06</v>
       </c>
@@ -17560,7 +17561,7 @@
         <v>1.3549748932355901E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>277.76</v>
       </c>
@@ -17588,7 +17589,7 @@
         <v>1.3874957536882256E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>16</v>
       </c>
@@ -17619,7 +17620,7 @@
         <v>1.2962758775235231E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>303.76</v>
       </c>
@@ -17647,7 +17648,7 @@
         <v>1.3977591606147808E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>309.93</v>
       </c>
@@ -17675,7 +17676,7 @@
         <v>1.3260803473554404E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>320.97000000000003</v>
       </c>
@@ -17703,7 +17704,7 @@
         <v>1.2136199914931037E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>17</v>
       </c>
@@ -17734,7 +17735,7 @@
         <v>1.1761079305403309E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>352.4</v>
       </c>
@@ -17762,7 +17763,7 @@
         <v>1.2901249700260348E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>372.43</v>
       </c>
@@ -17790,7 +17791,7 @@
         <v>1.2924265423746235E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>401.90999999999997</v>
       </c>
@@ -17818,7 +17819,7 @@
         <v>1.4137854192358643E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>18</v>
       </c>
@@ -17849,7 +17850,7 @@
         <v>1.5378205430140684E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>460.86</v>
       </c>
@@ -17877,7 +17878,7 @@
         <v>1.7525447539851108E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>471.86</v>
       </c>
@@ -17905,7 +17906,7 @@
         <v>1.8354459626495848E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>480.92999999999995</v>
       </c>
@@ -17933,7 +17934,7 @@
         <v>1.7741599082511196E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>19</v>
       </c>
@@ -17964,7 +17965,7 @@
         <v>1.7018967810815754E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>499.34</v>
       </c>
@@ -17992,7 +17993,7 @@
         <v>1.6722305840070343E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>514.96</v>
       </c>
@@ -18020,7 +18021,7 @@
         <v>1.5140688516260169E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>524.45000000000005</v>
       </c>
@@ -18048,7 +18049,7 @@
         <v>1.4935241961267933E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>20</v>
       </c>
@@ -18079,7 +18080,7 @@
         <v>1.4262745715150276E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>543.46</v>
       </c>
@@ -18107,7 +18108,7 @@
         <v>1.3096838745775104E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>549.79999999999995</v>
       </c>
@@ -18135,7 +18136,7 @@
         <v>1.2435359716132277E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>551.09</v>
       </c>
@@ -18163,7 +18164,7 @@
         <v>1.1498004233465794E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>21</v>
       </c>
@@ -18194,7 +18195,7 @@
         <v>1.1091972972047141E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>568.16000000000008</v>
       </c>
@@ -18222,7 +18223,7 @@
         <v>1.0149354203777296E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>565.67000000000007</v>
       </c>
@@ -18250,7 +18251,7 @@
         <v>1.0197169815360379E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>582.52</v>
       </c>
@@ -18278,7 +18279,7 @@
         <v>9.5526849536402714E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>22</v>
       </c>
@@ -18309,7 +18310,7 @@
         <v>9.1110150041107188E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>575.29</v>
       </c>
@@ -18337,7 +18338,7 @@
         <v>8.4628726049374298E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>575.12</v>
       </c>
@@ -18365,7 +18366,7 @@
         <v>8.1787443905864659E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>573.97</v>
       </c>
@@ -18393,7 +18394,7 @@
         <v>8.0904282423266694E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>23</v>
       </c>
@@ -18424,7 +18425,7 @@
         <v>7.6604445710011888E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>557.79</v>
       </c>
@@ -18452,7 +18453,7 @@
         <v>7.0157812928199536E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>552.66999999999996</v>
       </c>
@@ -18480,7 +18481,7 @@
         <v>6.9724260927651448E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>541.21</v>
       </c>
@@ -18508,7 +18509,7 @@
         <v>6.4402097892116593E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>24</v>
       </c>
@@ -18546,4 +18547,1599 @@
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18609A2C-77C9-41EE-BBB6-4B1FD91A66E5}">
+  <dimension ref="A1:I57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>154.61000000000001</v>
+      </c>
+      <c r="C2">
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <v>95.289999999999992</v>
+      </c>
+      <c r="E2">
+        <v>461.73</v>
+      </c>
+      <c r="F2">
+        <v>344.53</v>
+      </c>
+      <c r="G2">
+        <v>19.05</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H39" si="0">SUM(B2:G2)</f>
+        <v>1111.2099999999998</v>
+      </c>
+      <c r="I2" s="3">
+        <v>6.1903766580779125E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>135.53</v>
+      </c>
+      <c r="C3">
+        <v>31.81</v>
+      </c>
+      <c r="D3">
+        <v>139.73000000000002</v>
+      </c>
+      <c r="E3">
+        <v>719.06</v>
+      </c>
+      <c r="F3">
+        <v>449.38</v>
+      </c>
+      <c r="G3">
+        <v>228.32999999999998</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>1703.8400000000001</v>
+      </c>
+      <c r="I3" s="3">
+        <v>9.4918254561239309E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>126.21000000000001</v>
+      </c>
+      <c r="C4">
+        <v>54.06</v>
+      </c>
+      <c r="D4">
+        <v>168.93</v>
+      </c>
+      <c r="E4">
+        <v>818.6</v>
+      </c>
+      <c r="F4">
+        <v>550.27</v>
+      </c>
+      <c r="G4">
+        <v>383.62</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>2101.69</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1.1708185418161977E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>104.66999999999999</v>
+      </c>
+      <c r="C5">
+        <v>57.6</v>
+      </c>
+      <c r="D5">
+        <v>211.09</v>
+      </c>
+      <c r="E5">
+        <v>1094.9099999999999</v>
+      </c>
+      <c r="F5">
+        <v>644.03</v>
+      </c>
+      <c r="G5">
+        <v>308.08999999999997</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>2420.3900000000003</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1.3483613141931052E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>95.41</v>
+      </c>
+      <c r="C6">
+        <v>68.13</v>
+      </c>
+      <c r="D6">
+        <v>244.62</v>
+      </c>
+      <c r="E6">
+        <v>1224.1599999999999</v>
+      </c>
+      <c r="F6">
+        <v>782.46</v>
+      </c>
+      <c r="G6">
+        <v>428.62</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>2843.3999999999996</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1.5840135518559711E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>92.509999999999991</v>
+      </c>
+      <c r="C7">
+        <v>56.24</v>
+      </c>
+      <c r="D7">
+        <v>323.97000000000003</v>
+      </c>
+      <c r="E7">
+        <v>1429.37</v>
+      </c>
+      <c r="F7">
+        <v>993</v>
+      </c>
+      <c r="G7">
+        <v>603.41</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>3498.5</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1.9489594890511767E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>91.17</v>
+      </c>
+      <c r="C8">
+        <v>76.2</v>
+      </c>
+      <c r="D8">
+        <v>352.55999999999995</v>
+      </c>
+      <c r="E8">
+        <v>1517.28</v>
+      </c>
+      <c r="F8">
+        <v>1009.97</v>
+      </c>
+      <c r="G8">
+        <v>783.45</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>3830.63</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2.1339839038285291E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>90.13</v>
+      </c>
+      <c r="C9">
+        <v>82.7</v>
+      </c>
+      <c r="D9">
+        <v>396.82</v>
+      </c>
+      <c r="E9">
+        <v>1603.92</v>
+      </c>
+      <c r="F9">
+        <v>1099.1199999999999</v>
+      </c>
+      <c r="G9">
+        <v>826.96</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>4099.6499999999996</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2.2838507272512951E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>92.289999999999992</v>
+      </c>
+      <c r="C10">
+        <v>85.97</v>
+      </c>
+      <c r="D10">
+        <v>425.70000000000005</v>
+      </c>
+      <c r="E10">
+        <v>1546.42</v>
+      </c>
+      <c r="F10">
+        <v>1188.6500000000001</v>
+      </c>
+      <c r="G10">
+        <v>762.65</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>4101.68</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2.2849816084183024E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>87.28</v>
+      </c>
+      <c r="C11">
+        <v>90.679999999999993</v>
+      </c>
+      <c r="D11">
+        <v>452.04999999999995</v>
+      </c>
+      <c r="E11">
+        <v>1548.12</v>
+      </c>
+      <c r="F11">
+        <v>1366.97</v>
+      </c>
+      <c r="G11">
+        <v>705.19</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>4250.2900000000009</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2.3677699090236752E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>78.069999999999993</v>
+      </c>
+      <c r="C12">
+        <v>79.180000000000007</v>
+      </c>
+      <c r="D12">
+        <v>477.2</v>
+      </c>
+      <c r="E12">
+        <v>1440.27</v>
+      </c>
+      <c r="F12">
+        <v>1325.76</v>
+      </c>
+      <c r="G12">
+        <v>876.96</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>4277.4400000000005</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2.3828947482769949E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="C13">
+        <v>77.47</v>
+      </c>
+      <c r="D13">
+        <v>482</v>
+      </c>
+      <c r="E13">
+        <v>1415.3899999999999</v>
+      </c>
+      <c r="F13">
+        <v>1267.97</v>
+      </c>
+      <c r="G13">
+        <v>852.54</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>4168.7699999999995</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2.3223563953614045E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>74.08</v>
+      </c>
+      <c r="C14">
+        <v>87.009999999999991</v>
+      </c>
+      <c r="D14">
+        <v>484.13</v>
+      </c>
+      <c r="E14">
+        <v>1346.62</v>
+      </c>
+      <c r="F14">
+        <v>1165.5999999999999</v>
+      </c>
+      <c r="G14">
+        <v>570.76</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>3728.2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2.0769217570617685E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>68.88</v>
+      </c>
+      <c r="C15">
+        <v>86.72999999999999</v>
+      </c>
+      <c r="D15">
+        <v>487.7</v>
+      </c>
+      <c r="E15">
+        <v>1250.22</v>
+      </c>
+      <c r="F15">
+        <v>1365.51</v>
+      </c>
+      <c r="G15">
+        <v>308.5</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>3567.54</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1.9874205904157883E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>67</v>
+      </c>
+      <c r="C16">
+        <v>70.44</v>
+      </c>
+      <c r="D16">
+        <v>478.14</v>
+      </c>
+      <c r="E16">
+        <v>1148.3400000000001</v>
+      </c>
+      <c r="F16">
+        <v>1483.26</v>
+      </c>
+      <c r="G16">
+        <v>509.46000000000004</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>3756.6400000000003</v>
+      </c>
+      <c r="I16" s="3">
+        <v>2.0927652350862407E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>65.64</v>
+      </c>
+      <c r="C17">
+        <v>68.59</v>
+      </c>
+      <c r="D17">
+        <v>468.28999999999996</v>
+      </c>
+      <c r="E17">
+        <v>1064.18</v>
+      </c>
+      <c r="F17">
+        <v>1440.5900000000001</v>
+      </c>
+      <c r="G17">
+        <v>551.28</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>3658.5699999999997</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2.0381319759491104E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>66.12</v>
+      </c>
+      <c r="C18">
+        <v>95.570000000000007</v>
+      </c>
+      <c r="D18">
+        <v>461.95</v>
+      </c>
+      <c r="E18">
+        <v>1031.8200000000002</v>
+      </c>
+      <c r="F18">
+        <v>1422.0900000000001</v>
+      </c>
+      <c r="G18">
+        <v>574.91000000000008</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>3652.46</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2.0347281907617153E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>67.73</v>
+      </c>
+      <c r="C19">
+        <v>127.4</v>
+      </c>
+      <c r="D19">
+        <v>447.14</v>
+      </c>
+      <c r="E19">
+        <v>968.55</v>
+      </c>
+      <c r="F19">
+        <v>1315.57</v>
+      </c>
+      <c r="G19">
+        <v>899.66</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>3826.0499999999997</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2.1314324576487794E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>70.03</v>
+      </c>
+      <c r="C20">
+        <v>168.97</v>
+      </c>
+      <c r="D20">
+        <v>430.28</v>
+      </c>
+      <c r="E20">
+        <v>883.59</v>
+      </c>
+      <c r="F20">
+        <v>1291.2800000000002</v>
+      </c>
+      <c r="G20">
+        <v>823.41</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>3667.56</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2.0431401639744273E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>75.31</v>
+      </c>
+      <c r="C21">
+        <v>167.41</v>
+      </c>
+      <c r="D21">
+        <v>409.24</v>
+      </c>
+      <c r="E21">
+        <v>788.48</v>
+      </c>
+      <c r="F21">
+        <v>1304.48</v>
+      </c>
+      <c r="G21">
+        <v>770.53</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>3515.45</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1.9584020682535255E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>81.800000000000011</v>
+      </c>
+      <c r="C22">
+        <v>148.59</v>
+      </c>
+      <c r="D22">
+        <v>381.65</v>
+      </c>
+      <c r="E22">
+        <v>711.49</v>
+      </c>
+      <c r="F22">
+        <v>1196.5900000000001</v>
+      </c>
+      <c r="G22">
+        <v>394.74</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>2914.8599999999997</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1.6238227972718917E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>95.949999999999989</v>
+      </c>
+      <c r="C23">
+        <v>199.56</v>
+      </c>
+      <c r="D23">
+        <v>352.28</v>
+      </c>
+      <c r="E23">
+        <v>643.43000000000006</v>
+      </c>
+      <c r="F23">
+        <v>1193.0899999999999</v>
+      </c>
+      <c r="G23">
+        <v>508.19</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>2992.5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1.6670748237775181E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>115.14</v>
+      </c>
+      <c r="C24">
+        <v>270.24</v>
+      </c>
+      <c r="D24">
+        <v>326.61</v>
+      </c>
+      <c r="E24">
+        <v>605.77</v>
+      </c>
+      <c r="F24">
+        <v>1190.9099999999999</v>
+      </c>
+      <c r="G24">
+        <v>666.16</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>3174.83</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1.7686480076102178E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>132.54</v>
+      </c>
+      <c r="C25">
+        <v>256.31</v>
+      </c>
+      <c r="D25">
+        <v>310.44</v>
+      </c>
+      <c r="E25">
+        <v>555.54999999999995</v>
+      </c>
+      <c r="F25">
+        <v>1153.6500000000001</v>
+      </c>
+      <c r="G25">
+        <v>626.96</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>3035.45</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1.6910015952666554E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>150.21</v>
+      </c>
+      <c r="C26">
+        <v>229.95</v>
+      </c>
+      <c r="D26">
+        <v>310.83000000000004</v>
+      </c>
+      <c r="E26">
+        <v>514.74</v>
+      </c>
+      <c r="F26">
+        <v>1158.1399999999999</v>
+      </c>
+      <c r="G26">
+        <v>682.8</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>3046.67</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1.6972520813227237E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>161.26999999999998</v>
+      </c>
+      <c r="C27">
+        <v>198.41000000000003</v>
+      </c>
+      <c r="D27">
+        <v>311.67999999999995</v>
+      </c>
+      <c r="E27">
+        <v>594.27</v>
+      </c>
+      <c r="F27">
+        <v>1100.47</v>
+      </c>
+      <c r="G27">
+        <v>673.74</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>3039.84</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1.6934471954258481E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>170.49</v>
+      </c>
+      <c r="C28">
+        <v>203.16000000000003</v>
+      </c>
+      <c r="D28">
+        <v>310.49</v>
+      </c>
+      <c r="E28">
+        <v>579.78</v>
+      </c>
+      <c r="F28">
+        <v>1082.32</v>
+      </c>
+      <c r="G28">
+        <v>657.89</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>3004.1299999999997</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1.673553714404262E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>174.83999999999997</v>
+      </c>
+      <c r="C29">
+        <v>264.01</v>
+      </c>
+      <c r="D29">
+        <v>317.77</v>
+      </c>
+      <c r="E29">
+        <v>535.67999999999995</v>
+      </c>
+      <c r="F29">
+        <v>1037.45</v>
+      </c>
+      <c r="G29">
+        <v>779.03</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>3108.7799999999997</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1.7318525883585869E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>177.44</v>
+      </c>
+      <c r="C30">
+        <v>254.23000000000002</v>
+      </c>
+      <c r="D30">
+        <v>316.94</v>
+      </c>
+      <c r="E30">
+        <v>532.95000000000005</v>
+      </c>
+      <c r="F30">
+        <v>933.59</v>
+      </c>
+      <c r="G30">
+        <v>536.39</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>2751.54</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1.5328397863381091E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>184</v>
+      </c>
+      <c r="C31">
+        <v>283.94</v>
+      </c>
+      <c r="D31">
+        <v>305.24</v>
+      </c>
+      <c r="E31">
+        <v>514.08999999999992</v>
+      </c>
+      <c r="F31">
+        <v>924.44</v>
+      </c>
+      <c r="G31">
+        <v>571.5</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>2783.21</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1.5504826467120553E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>202.81</v>
+      </c>
+      <c r="C32">
+        <v>350.17</v>
+      </c>
+      <c r="D32">
+        <v>299.09000000000003</v>
+      </c>
+      <c r="E32">
+        <v>499.41999999999996</v>
+      </c>
+      <c r="F32">
+        <v>979.95</v>
+      </c>
+      <c r="G32">
+        <v>558.71</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>2890.15</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1.6100572437562553E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>225.09</v>
+      </c>
+      <c r="C33">
+        <v>359.40999999999997</v>
+      </c>
+      <c r="D33">
+        <v>286.37</v>
+      </c>
+      <c r="E33">
+        <v>481.38</v>
+      </c>
+      <c r="F33">
+        <v>893.94</v>
+      </c>
+      <c r="G33">
+        <v>635.16000000000008</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>2881.3500000000004</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1.605154901751496E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>235.85</v>
+      </c>
+      <c r="C34">
+        <v>422.89</v>
+      </c>
+      <c r="D34">
+        <v>279.44</v>
+      </c>
+      <c r="E34">
+        <v>445.08000000000004</v>
+      </c>
+      <c r="F34">
+        <v>819.97</v>
+      </c>
+      <c r="G34">
+        <v>367.82000000000005</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>2571.0500000000006</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1.4322916376518592E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>245.74</v>
+      </c>
+      <c r="C35">
+        <v>481.3</v>
+      </c>
+      <c r="D35">
+        <v>272.31</v>
+      </c>
+      <c r="E35">
+        <v>382.46000000000004</v>
+      </c>
+      <c r="F35">
+        <v>841.95</v>
+      </c>
+      <c r="G35">
+        <v>552.97</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>2776.7300000000005</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1.5468727403267329E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>263.06</v>
+      </c>
+      <c r="C36">
+        <v>534.06999999999994</v>
+      </c>
+      <c r="D36">
+        <v>250.18</v>
+      </c>
+      <c r="E36">
+        <v>326.89</v>
+      </c>
+      <c r="F36">
+        <v>919.57</v>
+      </c>
+      <c r="G36">
+        <v>744.01</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>3037.7799999999997</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1.6922996017292791E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>277.76</v>
+      </c>
+      <c r="C37">
+        <v>570.98</v>
+      </c>
+      <c r="D37">
+        <v>216.42000000000002</v>
+      </c>
+      <c r="E37">
+        <v>277.44</v>
+      </c>
+      <c r="F37">
+        <v>898.95999999999992</v>
+      </c>
+      <c r="G37">
+        <v>869.13</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>3110.69</v>
+      </c>
+      <c r="I37" s="3">
+        <v>1.7329166194073476E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>281.70000000000005</v>
+      </c>
+      <c r="C38">
+        <v>613.27</v>
+      </c>
+      <c r="D38">
+        <v>202.85</v>
+      </c>
+      <c r="E38">
+        <v>242.44</v>
+      </c>
+      <c r="F38">
+        <v>875.6</v>
+      </c>
+      <c r="G38">
+        <v>690.31999999999994</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>2906.1800000000003</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1.6189873053853793E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>303.76</v>
+      </c>
+      <c r="C39">
+        <v>754.52</v>
+      </c>
+      <c r="D39">
+        <v>187.07999999999998</v>
+      </c>
+      <c r="E39">
+        <v>237.68</v>
+      </c>
+      <c r="F39">
+        <v>861.29</v>
+      </c>
+      <c r="G39">
+        <v>789.37</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>3133.7</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1.7457351295811555E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>309.93</v>
+      </c>
+      <c r="C40">
+        <v>741.71</v>
+      </c>
+      <c r="D40">
+        <v>171.22</v>
+      </c>
+      <c r="E40">
+        <v>232.25</v>
+      </c>
+      <c r="F40">
+        <v>878.17000000000007</v>
+      </c>
+      <c r="G40">
+        <v>639.72</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ref="H40:H57" si="1">SUM(B40:G40)</f>
+        <v>2973</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1.6562116795624263E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>320.97000000000003</v>
+      </c>
+      <c r="C41">
+        <v>854.11</v>
+      </c>
+      <c r="D41">
+        <v>142.9</v>
+      </c>
+      <c r="E41">
+        <v>199.94</v>
+      </c>
+      <c r="F41">
+        <v>776.88</v>
+      </c>
+      <c r="G41">
+        <v>426.07</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>2720.8700000000003</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1.5157540102828859E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>17</v>
+      </c>
+      <c r="B42">
+        <v>326.65999999999997</v>
+      </c>
+      <c r="C42">
+        <v>881.34999999999991</v>
+      </c>
+      <c r="D42">
+        <v>137.87</v>
+      </c>
+      <c r="E42">
+        <v>178.83</v>
+      </c>
+      <c r="F42">
+        <v>726.06999999999994</v>
+      </c>
+      <c r="G42">
+        <v>385.99</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>2636.7699999999995</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1.4689032190783107E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>352.4</v>
+      </c>
+      <c r="C43">
+        <v>919.68000000000006</v>
+      </c>
+      <c r="D43">
+        <v>114.31</v>
+      </c>
+      <c r="E43">
+        <v>135.92000000000002</v>
+      </c>
+      <c r="F43">
+        <v>794.8</v>
+      </c>
+      <c r="G43">
+        <v>575.28</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>2892.3899999999994</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1.6113051126301934E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>372.43</v>
+      </c>
+      <c r="C44">
+        <v>1066.78</v>
+      </c>
+      <c r="D44">
+        <v>100.81</v>
+      </c>
+      <c r="E44">
+        <v>103.57</v>
+      </c>
+      <c r="F44">
+        <v>849.06</v>
+      </c>
+      <c r="G44">
+        <v>404.9</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>2897.5499999999997</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1.6141796677148025E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>401.90999999999997</v>
+      </c>
+      <c r="C45">
+        <v>1172.6100000000001</v>
+      </c>
+      <c r="D45">
+        <v>93</v>
+      </c>
+      <c r="E45">
+        <v>81.2</v>
+      </c>
+      <c r="F45">
+        <v>894.57999999999993</v>
+      </c>
+      <c r="G45">
+        <v>526.33000000000004</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>3169.63</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1.7657511691528602E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>18</v>
+      </c>
+      <c r="B46">
+        <v>427.79</v>
+      </c>
+      <c r="C46">
+        <v>1254.9299999999998</v>
+      </c>
+      <c r="D46">
+        <v>80.539999999999992</v>
+      </c>
+      <c r="E46">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="F46">
+        <v>964.76</v>
+      </c>
+      <c r="G46">
+        <v>639.70000000000005</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>3447.71</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1.9206651765032536E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>460.86</v>
+      </c>
+      <c r="C47">
+        <v>1376.04</v>
+      </c>
+      <c r="D47">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="E47">
+        <v>69.949999999999989</v>
+      </c>
+      <c r="F47">
+        <v>996.59999999999991</v>
+      </c>
+      <c r="G47">
+        <v>957.56</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>3929.11</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2.1888455675363353E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>471.86</v>
+      </c>
+      <c r="C48">
+        <v>1413.7</v>
+      </c>
+      <c r="D48">
+        <v>57.03</v>
+      </c>
+      <c r="E48">
+        <v>57.28</v>
+      </c>
+      <c r="F48">
+        <v>1010.45</v>
+      </c>
+      <c r="G48">
+        <v>1104.6500000000001</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>4114.9699999999993</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2.292385259014126E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>480.92999999999995</v>
+      </c>
+      <c r="C49">
+        <v>1393.88</v>
+      </c>
+      <c r="D49">
+        <v>54.02</v>
+      </c>
+      <c r="E49">
+        <v>47.45</v>
+      </c>
+      <c r="F49">
+        <v>1082.8699999999999</v>
+      </c>
+      <c r="G49">
+        <v>918.42000000000007</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>3977.5699999999997</v>
+      </c>
+      <c r="I49" s="3">
+        <v>2.2158418736216347E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>19</v>
+      </c>
+      <c r="B50">
+        <v>490.96000000000004</v>
+      </c>
+      <c r="C50">
+        <v>1331.4099999999999</v>
+      </c>
+      <c r="D50">
+        <v>51.85</v>
+      </c>
+      <c r="E50">
+        <v>47.16</v>
+      </c>
+      <c r="F50">
+        <v>1092.8599999999999</v>
+      </c>
+      <c r="G50">
+        <v>801.32</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>3815.56</v>
+      </c>
+      <c r="I50" s="3">
+        <v>2.1255886431453788E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>499.34</v>
+      </c>
+      <c r="C51">
+        <v>1353.9499999999998</v>
+      </c>
+      <c r="D51">
+        <v>50.21</v>
+      </c>
+      <c r="E51">
+        <v>38.879999999999995</v>
+      </c>
+      <c r="F51">
+        <v>1101.98</v>
+      </c>
+      <c r="G51">
+        <v>704.69</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>3749.0499999999997</v>
+      </c>
+      <c r="I51" s="3">
+        <v>2.0885369651071354E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>514.96</v>
+      </c>
+      <c r="C52">
+        <v>1350.29</v>
+      </c>
+      <c r="D52">
+        <v>44.209999999999994</v>
+      </c>
+      <c r="E52">
+        <v>33</v>
+      </c>
+      <c r="F52">
+        <v>1042.8499999999999</v>
+      </c>
+      <c r="G52">
+        <v>409.15</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>3394.46</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1.8910004365312726E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>524.45000000000005</v>
+      </c>
+      <c r="C53">
+        <v>1350.1100000000001</v>
+      </c>
+      <c r="D53">
+        <v>42.07</v>
+      </c>
+      <c r="E53">
+        <v>33.44</v>
+      </c>
+      <c r="F53">
+        <v>992.9</v>
+      </c>
+      <c r="G53">
+        <v>405.42999999999995</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>3348.4</v>
+      </c>
+      <c r="I53" s="3">
+        <v>1.8653411328109076E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>20</v>
+      </c>
+      <c r="B54">
+        <v>532.38</v>
+      </c>
+      <c r="C54">
+        <v>1332.65</v>
+      </c>
+      <c r="D54">
+        <v>41.230000000000004</v>
+      </c>
+      <c r="E54">
+        <v>32.18</v>
+      </c>
+      <c r="F54">
+        <v>920.68999999999994</v>
+      </c>
+      <c r="G54">
+        <v>338.5</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>3197.63</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1.7813495300770945E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>543.46</v>
+      </c>
+      <c r="C55">
+        <v>1242.74</v>
+      </c>
+      <c r="D55">
+        <v>38.64</v>
+      </c>
+      <c r="E55">
+        <v>33.4</v>
+      </c>
+      <c r="F55">
+        <v>813.56</v>
+      </c>
+      <c r="G55">
+        <v>264.44</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="1"/>
+        <v>2936.2400000000002</v>
+      </c>
+      <c r="I55" s="3">
+        <v>1.6357332600061818E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>549.79999999999995</v>
+      </c>
+      <c r="C56">
+        <v>1204.21</v>
+      </c>
+      <c r="D56">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="E56">
+        <v>33</v>
+      </c>
+      <c r="F56">
+        <v>740.14</v>
+      </c>
+      <c r="G56">
+        <v>222.99</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>2787.9399999999996</v>
+      </c>
+      <c r="I56" s="3">
+        <v>1.5531176555396133E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>551.09</v>
+      </c>
+      <c r="C57">
+        <v>1162.6999999999998</v>
+      </c>
+      <c r="D57">
+        <v>35.44</v>
+      </c>
+      <c r="E57">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="F57">
+        <v>589.03</v>
+      </c>
+      <c r="G57">
+        <v>207.19</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="1"/>
+        <v>2577.79</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1.4360463859600494E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>